--- a/Báo cáo Jmeter.xlsx
+++ b/Báo cáo Jmeter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\DATN-Trần Thị Ngọc Anh\jmeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\DATN-VASCARA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F918825B-3975-43FB-9FD2-CA9BA04054AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA5FC9-72AF-440A-8030-F6C03D3D7CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0561319F-1241-4301-AA24-CE34BEB949AF}"/>
   </bookViews>
@@ -939,42 +939,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,155 +958,191 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1453,2427 +1461,2427 @@
   <dimension ref="A1:AW985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="12" customWidth="1"/>
-    <col min="11" max="27" width="9.5546875" style="12" customWidth="1"/>
-    <col min="28" max="16384" width="14" style="12"/>
+    <col min="1" max="1" width="9.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="27" width="9.5546875" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="14" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:49" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:49" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:49" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
+    <row r="6" spans="1:49" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
     </row>
     <row r="7" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+      <c r="A7" s="39">
         <v>1</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="42">
         <v>10</v>
       </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="14">
         <v>25</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="14">
         <v>26</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="14">
         <v>28</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="18">
         <f>AVERAGE(G7:I7)</f>
         <v>26.333333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="15">
         <v>413</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="15">
         <v>882</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="15">
         <v>374</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="19">
         <f t="shared" ref="J8:J23" si="0">AVERAGE(G8:I8)</f>
         <v>556.33333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="15">
         <v>145</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="15">
         <v>195</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="15">
         <v>165</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="19">
         <f t="shared" si="0"/>
         <v>168.33333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="15">
         <v>113</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="15">
         <v>60.4</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="15">
         <v>112.6</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="19">
         <f t="shared" si="0"/>
         <v>95.333333333333329</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="29" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="29">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="29">
-        <v>0</v>
-      </c>
-      <c r="J11" s="54">
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="31" t="s">
+    <row r="12" spans="1:49" s="90" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="57"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58">
+      <c r="A13" s="64">
         <v>2</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="32">
+      <c r="C13" s="54"/>
+      <c r="D13" s="65">
         <v>100</v>
       </c>
-      <c r="E13" s="33">
-        <v>0</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="E13" s="50">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="15">
         <v>33</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="15">
         <v>27</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="15">
         <v>44</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="19">
         <f t="shared" si="0"/>
         <v>34.666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="15">
         <v>2589</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="15">
         <v>4619</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="15">
         <v>1071</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="19">
         <f t="shared" si="0"/>
         <v>2759.6666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="15">
         <v>808</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="15">
         <v>343</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="15">
         <v>249</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="19">
         <f t="shared" si="0"/>
         <v>466.66666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="15">
         <v>210.5</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="15">
         <v>126.2</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="15">
         <v>513.70000000000005</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="19">
         <f t="shared" si="0"/>
         <v>283.4666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="29" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="29">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29">
-        <v>0</v>
-      </c>
-      <c r="I17" s="29">
-        <v>0</v>
-      </c>
-      <c r="J17" s="54">
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="31" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="57"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="64">
         <v>3</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="32">
+      <c r="C19" s="54"/>
+      <c r="D19" s="65">
         <v>1000</v>
       </c>
-      <c r="E19" s="33">
-        <v>0</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="50">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="15">
         <v>45</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="15">
         <v>47</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="15">
         <v>46</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="19">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="15">
         <v>4982</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="15">
         <v>3720</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="15">
         <v>3951</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="19">
         <f t="shared" si="0"/>
         <v>4217.666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="15">
         <v>752</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="15">
         <v>948</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="15">
         <v>886</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="19">
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="15">
         <v>892.6</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="15">
         <v>1343.8</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="15">
         <v>910.1</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="19">
         <f t="shared" si="0"/>
         <v>1048.8333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="29" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0</v>
-      </c>
-      <c r="I23" s="29">
-        <v>0</v>
-      </c>
-      <c r="J23" s="54">
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="34" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="59"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51">
+      <c r="A26" s="39">
         <v>4</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="42">
         <v>10</v>
       </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="26" t="s">
+      <c r="E26" s="45">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="14">
         <v>30</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="14">
         <v>31</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="14">
         <v>31</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="18">
         <f>AVERAGE(G26:I26)</f>
         <v>30.666666666666668</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="15">
         <v>721</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="15">
         <v>555</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="15">
         <v>559</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="19">
         <f t="shared" ref="J27:J42" si="1">AVERAGE(G27:I27)</f>
         <v>611.66666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="15">
         <v>234</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="15">
         <v>183</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="15">
         <v>172</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="19">
         <f t="shared" si="1"/>
         <v>196.33333333333334</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="15">
         <v>81.599999999999994</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="15">
         <v>106.4</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="15">
         <v>106</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="19">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="29" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="29">
-        <v>0</v>
-      </c>
-      <c r="H30" s="29">
-        <v>0</v>
-      </c>
-      <c r="I30" s="29">
-        <v>0</v>
-      </c>
-      <c r="J30" s="54">
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="35" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="63"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58">
+      <c r="A32" s="64">
         <v>5</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="32">
+      <c r="C32" s="54"/>
+      <c r="D32" s="65">
         <v>100</v>
       </c>
-      <c r="E32" s="33">
-        <v>0</v>
-      </c>
-      <c r="F32" s="29" t="s">
+      <c r="E32" s="50">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="15">
         <v>50</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="15">
         <v>48</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="15">
         <v>52</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="19">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="15">
         <v>1323</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="15">
         <v>1120</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="15">
         <v>1129</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="19">
         <f t="shared" si="1"/>
         <v>1190.6666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="15">
         <v>381</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="15">
         <v>325</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="15">
         <v>326</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="19">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="15">
         <v>446.4</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="15">
         <v>514.6</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="15">
         <v>524.9</v>
       </c>
-      <c r="J35" s="54">
+      <c r="J35" s="19">
         <f t="shared" si="1"/>
         <v>495.3</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="29" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="29">
-        <v>0</v>
-      </c>
-      <c r="H36" s="29">
-        <v>0</v>
-      </c>
-      <c r="I36" s="29">
-        <v>0</v>
-      </c>
-      <c r="J36" s="54">
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="35" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="63"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58">
+      <c r="A38" s="64">
         <v>6</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="32">
+      <c r="C38" s="54"/>
+      <c r="D38" s="65">
         <v>1000</v>
       </c>
-      <c r="E38" s="33">
-        <v>0</v>
-      </c>
-      <c r="F38" s="29" t="s">
+      <c r="E38" s="50">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="15">
         <v>46</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="15">
         <v>46</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="15">
         <v>37</v>
       </c>
-      <c r="J38" s="54">
+      <c r="J38" s="19">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="15">
         <v>12808</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="15">
         <v>11702</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="15">
         <v>12076</v>
       </c>
-      <c r="J39" s="54">
+      <c r="J39" s="19">
         <f t="shared" si="1"/>
         <v>12195.333333333334</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29" t="s">
+      <c r="A40" s="40"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="15">
         <v>2115</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="15">
         <v>2108</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="15">
         <v>2239</v>
       </c>
-      <c r="J40" s="54">
+      <c r="J40" s="19">
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29" t="s">
+      <c r="A41" s="40"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="15">
         <v>460.4</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="15">
         <v>508.6</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="15">
         <v>491.5</v>
       </c>
-      <c r="J41" s="54">
+      <c r="J41" s="19">
         <f t="shared" si="1"/>
         <v>486.83333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="36" t="s">
+      <c r="A42" s="40"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="36">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36">
-        <v>0</v>
-      </c>
-      <c r="I42" s="36">
-        <v>0</v>
-      </c>
-      <c r="J42" s="64">
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="37" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="65"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51">
+      <c r="A45" s="39">
         <v>8</v>
       </c>
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="42">
         <v>10</v>
       </c>
-      <c r="E45" s="25">
-        <v>0</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="14">
         <v>373</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="14">
         <v>355</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="14">
         <v>360</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="18">
         <f>AVERAGE(G45:I45)</f>
         <v>362.66666666666669</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="15">
         <v>451</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="15">
         <v>419</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I46" s="15">
         <v>412</v>
       </c>
-      <c r="J46" s="54">
+      <c r="J46" s="19">
         <f t="shared" ref="J46:J49" si="2">AVERAGE(G46:I46)</f>
         <v>427.33333333333331</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="15">
         <v>417</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="15">
         <v>395</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="15">
         <v>379</v>
       </c>
-      <c r="J47" s="54">
+      <c r="J47" s="19">
         <f t="shared" si="2"/>
         <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29" t="s">
+      <c r="A48" s="40"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="15">
         <v>22.2</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="15">
         <v>23.9</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="15">
         <v>24.3</v>
       </c>
-      <c r="J48" s="54">
+      <c r="J48" s="19">
         <f t="shared" si="2"/>
         <v>23.466666666666665</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="29" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="29">
-        <v>0</v>
-      </c>
-      <c r="H49" s="29">
-        <v>0</v>
-      </c>
-      <c r="I49" s="29">
-        <v>0</v>
-      </c>
-      <c r="J49" s="54">
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="35" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="63"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="73"/>
     </row>
     <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58">
+      <c r="A51" s="64">
         <v>9</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="32">
+      <c r="C51" s="54"/>
+      <c r="D51" s="65">
         <v>100</v>
       </c>
-      <c r="E51" s="33">
-        <v>0</v>
-      </c>
-      <c r="F51" s="29" t="s">
+      <c r="E51" s="50">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="15">
         <v>548</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="15">
         <v>537</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="15">
         <v>570</v>
       </c>
-      <c r="J51" s="54">
+      <c r="J51" s="19">
         <f t="shared" ref="J51:J55" si="3">AVERAGE(G51:I51)</f>
         <v>551.66666666666663</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G52" s="15">
         <v>1255</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H52" s="15">
         <v>1164</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I52" s="15">
         <v>1123</v>
       </c>
-      <c r="J52" s="54">
+      <c r="J52" s="19">
         <f t="shared" si="3"/>
         <v>1180.6666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29" t="s">
+      <c r="A53" s="40"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="15">
         <v>988</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="15">
         <v>1020</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I53" s="15">
         <v>997</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="19">
         <f t="shared" si="3"/>
         <v>1001.6666666666666</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29" t="s">
+      <c r="A54" s="40"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G54" s="15">
         <v>76.599999999999994</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="15">
         <v>85.8</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="15">
         <v>89</v>
       </c>
-      <c r="J54" s="54">
+      <c r="J54" s="19">
         <f t="shared" si="3"/>
         <v>83.8</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="29" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="29">
-        <v>0</v>
-      </c>
-      <c r="H55" s="29">
-        <v>0</v>
-      </c>
-      <c r="I55" s="29">
-        <v>0</v>
-      </c>
-      <c r="J55" s="54">
+      <c r="G55" s="15">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15">
+        <v>0</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="35" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="63"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="73"/>
     </row>
     <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="58">
+      <c r="A57" s="64">
         <v>10</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="32">
+      <c r="C57" s="54"/>
+      <c r="D57" s="65">
         <v>1000</v>
       </c>
-      <c r="E57" s="33">
-        <v>0</v>
-      </c>
-      <c r="F57" s="29" t="s">
+      <c r="E57" s="50">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="15">
         <v>455</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="15">
         <v>475</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="15">
         <v>380</v>
       </c>
-      <c r="J57" s="54">
+      <c r="J57" s="19">
         <f t="shared" ref="J57:J61" si="4">AVERAGE(G57:I57)</f>
         <v>436.66666666666669</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29" t="s">
+      <c r="A58" s="40"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="29">
+      <c r="G58" s="15">
         <v>4306</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="15">
         <v>5062</v>
       </c>
-      <c r="I58" s="29">
+      <c r="I58" s="15">
         <v>5952</v>
       </c>
-      <c r="J58" s="54">
+      <c r="J58" s="19">
         <f t="shared" si="4"/>
         <v>5106.666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29" t="s">
+      <c r="A59" s="40"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="15">
         <v>1825</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="15">
         <v>1762</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I59" s="15">
         <v>1904</v>
       </c>
-      <c r="J59" s="54">
+      <c r="J59" s="19">
         <f t="shared" si="4"/>
         <v>1830.3333333333333</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29" t="s">
+      <c r="A60" s="40"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="15">
         <v>128.9</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="15">
         <v>121.9</v>
       </c>
-      <c r="I60" s="29">
+      <c r="I60" s="15">
         <v>129.19999999999999</v>
       </c>
-      <c r="J60" s="54">
+      <c r="J60" s="19">
         <f t="shared" si="4"/>
         <v>126.66666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="55"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="29" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G61" s="29">
-        <v>0</v>
-      </c>
-      <c r="H61" s="29">
-        <v>0</v>
-      </c>
-      <c r="I61" s="29">
-        <v>0</v>
-      </c>
-      <c r="J61" s="54">
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
+      <c r="H61" s="15">
+        <v>0</v>
+      </c>
+      <c r="I61" s="15">
+        <v>0</v>
+      </c>
+      <c r="J61" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="41" t="s">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="66"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="32"/>
     </row>
     <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="38"/>
     </row>
     <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="51">
+      <c r="A64" s="39">
         <v>11</v>
       </c>
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="76" t="s">
+      <c r="C64" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D64" s="42">
         <v>10</v>
       </c>
-      <c r="E64" s="25">
-        <v>0</v>
-      </c>
-      <c r="F64" s="26" t="s">
+      <c r="E64" s="45">
+        <v>0</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="26">
+      <c r="G64" s="14">
         <v>378</v>
       </c>
-      <c r="H64" s="26">
+      <c r="H64" s="14">
         <v>379</v>
       </c>
-      <c r="I64" s="26">
+      <c r="I64" s="14">
         <v>394</v>
       </c>
-      <c r="J64" s="52">
+      <c r="J64" s="18">
         <f>AVERAGE(G64:I64)</f>
         <v>383.66666666666669</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="29" t="s">
+      <c r="A65" s="40"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G65" s="29">
+      <c r="G65" s="15">
         <v>441</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H65" s="15">
         <v>458</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I65" s="15">
         <v>463</v>
       </c>
-      <c r="J65" s="54">
+      <c r="J65" s="19">
         <f t="shared" ref="J65:J68" si="5">AVERAGE(G65:I65)</f>
         <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="29" t="s">
+      <c r="A66" s="40"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G66" s="29">
+      <c r="G66" s="15">
         <v>393</v>
       </c>
-      <c r="H66" s="29">
+      <c r="H66" s="15">
         <v>414</v>
       </c>
-      <c r="I66" s="29">
+      <c r="I66" s="15">
         <v>418</v>
       </c>
-      <c r="J66" s="54">
+      <c r="J66" s="19">
         <f t="shared" si="5"/>
         <v>408.33333333333331</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="53"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29" t="s">
+      <c r="A67" s="40"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="15">
         <v>22.6</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H67" s="15">
         <v>21.8</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="15">
         <v>21.6</v>
       </c>
-      <c r="J67" s="54">
+      <c r="J67" s="19">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="55"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="29" t="s">
+      <c r="A68" s="41"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="29">
-        <v>0</v>
-      </c>
-      <c r="H68" s="29">
-        <v>0</v>
-      </c>
-      <c r="I68" s="29">
-        <v>0</v>
-      </c>
-      <c r="J68" s="54">
+      <c r="G68" s="15">
+        <v>0</v>
+      </c>
+      <c r="H68" s="15">
+        <v>0</v>
+      </c>
+      <c r="I68" s="15">
+        <v>0</v>
+      </c>
+      <c r="J68" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="56"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="35" t="s">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="67"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="78"/>
     </row>
     <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="58">
+      <c r="A70" s="64">
         <v>12</v>
       </c>
-      <c r="B70" s="82" t="s">
+      <c r="B70" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="32">
+      <c r="C70" s="54"/>
+      <c r="D70" s="65">
         <v>100</v>
       </c>
-      <c r="E70" s="33">
-        <v>0</v>
-      </c>
-      <c r="F70" s="29" t="s">
+      <c r="E70" s="50">
+        <v>0</v>
+      </c>
+      <c r="F70" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="29">
+      <c r="G70" s="15">
         <v>1576</v>
       </c>
-      <c r="H70" s="29">
+      <c r="H70" s="15">
         <v>1153</v>
       </c>
-      <c r="I70" s="29">
+      <c r="I70" s="15">
         <v>1159</v>
       </c>
-      <c r="J70" s="54">
+      <c r="J70" s="19">
         <f t="shared" ref="J70:J74" si="6">AVERAGE(G70:I70)</f>
         <v>1296</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="53"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29" t="s">
+      <c r="A71" s="40"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G71" s="29">
+      <c r="G71" s="15">
         <v>2567</v>
       </c>
-      <c r="H71" s="29">
+      <c r="H71" s="15">
         <v>2755</v>
       </c>
-      <c r="I71" s="29">
+      <c r="I71" s="15">
         <v>2487</v>
       </c>
-      <c r="J71" s="54">
+      <c r="J71" s="19">
         <f t="shared" si="6"/>
         <v>2603</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="53"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29" t="s">
+      <c r="A72" s="40"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="29">
+      <c r="G72" s="15">
         <v>2180</v>
       </c>
-      <c r="H72" s="29">
+      <c r="H72" s="15">
         <v>1976</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I72" s="15">
         <v>2027</v>
       </c>
-      <c r="J72" s="54">
+      <c r="J72" s="19">
         <f t="shared" si="6"/>
         <v>2061</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="53"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29" t="s">
+      <c r="A73" s="40"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G73" s="29">
+      <c r="G73" s="15">
         <v>38.9</v>
       </c>
-      <c r="H73" s="29">
+      <c r="H73" s="15">
         <v>36.200000000000003</v>
       </c>
-      <c r="I73" s="29">
+      <c r="I73" s="15">
         <v>40.1</v>
       </c>
-      <c r="J73" s="54">
+      <c r="J73" s="19">
         <f t="shared" si="6"/>
         <v>38.4</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="55"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="29" t="s">
+      <c r="A74" s="41"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="29">
-        <v>0</v>
-      </c>
-      <c r="H74" s="29">
-        <v>0</v>
-      </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-      <c r="J74" s="54">
+      <c r="G74" s="15">
+        <v>0</v>
+      </c>
+      <c r="H74" s="15">
+        <v>0</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="56"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="35" t="s">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="63"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="73"/>
     </row>
     <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="58">
+      <c r="A76" s="64">
         <v>13</v>
       </c>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="32">
+      <c r="C76" s="54"/>
+      <c r="D76" s="65">
         <v>1000</v>
       </c>
-      <c r="E76" s="33">
-        <v>0</v>
-      </c>
-      <c r="F76" s="29" t="s">
+      <c r="E76" s="50">
+        <v>0</v>
+      </c>
+      <c r="F76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G76" s="29">
+      <c r="G76" s="15">
         <v>2892</v>
       </c>
-      <c r="H76" s="29">
+      <c r="H76" s="15">
         <v>6629</v>
       </c>
-      <c r="I76" s="29">
+      <c r="I76" s="15">
         <v>4941</v>
       </c>
-      <c r="J76" s="54">
+      <c r="J76" s="19">
         <f t="shared" ref="J76:J79" si="7">AVERAGE(G76:I76)</f>
         <v>4820.666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="53"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29" t="s">
+      <c r="A77" s="40"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G77" s="29">
+      <c r="G77" s="15">
         <v>37850</v>
       </c>
-      <c r="H77" s="29">
+      <c r="H77" s="15">
         <v>46889</v>
       </c>
-      <c r="I77" s="29">
+      <c r="I77" s="15">
         <v>43868</v>
       </c>
-      <c r="J77" s="54">
+      <c r="J77" s="19">
         <f t="shared" si="7"/>
         <v>42869</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="53"/>
-      <c r="B78" s="85"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="29" t="s">
+      <c r="A78" s="40"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="29">
+      <c r="G78" s="15">
         <v>21130</v>
       </c>
-      <c r="H78" s="29">
+      <c r="H78" s="15">
         <v>23346</v>
       </c>
-      <c r="I78" s="29">
+      <c r="I78" s="15">
         <v>20992</v>
       </c>
-      <c r="J78" s="54">
+      <c r="J78" s="19">
         <f t="shared" si="7"/>
         <v>21822.666666666668</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="29" t="s">
+      <c r="A79" s="40"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G79" s="29">
+      <c r="G79" s="15">
         <v>26.4</v>
       </c>
-      <c r="H79" s="29">
+      <c r="H79" s="15">
         <v>21.3</v>
       </c>
-      <c r="I79" s="29">
+      <c r="I79" s="15">
         <v>22.8</v>
       </c>
-      <c r="J79" s="54">
+      <c r="J79" s="19">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="29" t="s">
+      <c r="A80" s="41"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G80" s="29">
-        <v>0</v>
-      </c>
-      <c r="H80" s="29">
-        <v>0</v>
-      </c>
-      <c r="I80" s="29">
-        <v>0</v>
-      </c>
-      <c r="J80" s="54">
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="19">
         <f>AVERAGE(G80:I80)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="56"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="41" t="s">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="66"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="32"/>
     </row>
     <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="38"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="40"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="38"/>
     </row>
     <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="68">
+      <c r="A83" s="51">
         <v>16</v>
       </c>
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="42">
         <v>80</v>
       </c>
-      <c r="E83" s="25" t="s">
+      <c r="E83" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="14">
         <v>469</v>
       </c>
-      <c r="H83" s="26">
+      <c r="H83" s="14">
         <v>434</v>
       </c>
-      <c r="I83" s="26">
+      <c r="I83" s="14">
         <v>419</v>
       </c>
-      <c r="J83" s="52">
+      <c r="J83" s="18">
         <f>AVERAGE(G83:I83)</f>
         <v>440.66666666666669</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="51"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="29" t="s">
+      <c r="A84" s="39"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G84" s="29">
+      <c r="G84" s="15">
         <v>1557</v>
       </c>
-      <c r="H84" s="29">
+      <c r="H84" s="15">
         <v>2796</v>
       </c>
-      <c r="I84" s="29">
+      <c r="I84" s="15">
         <v>1552</v>
       </c>
-      <c r="J84" s="52">
+      <c r="J84" s="18">
         <f t="shared" ref="J84:J86" si="8">AVERAGE(G84:I84)</f>
         <v>1968.3333333333333</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="51"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="29" t="s">
+      <c r="A85" s="39"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G85" s="29">
+      <c r="G85" s="15">
         <v>618</v>
       </c>
-      <c r="H85" s="29">
+      <c r="H85" s="15">
         <v>1272</v>
       </c>
-      <c r="I85" s="29">
+      <c r="I85" s="15">
         <v>609</v>
       </c>
-      <c r="J85" s="52">
+      <c r="J85" s="18">
         <f t="shared" si="8"/>
         <v>833</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="51"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="29" t="s">
+      <c r="A86" s="39"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G86" s="29">
+      <c r="G86" s="15">
         <v>21.1</v>
       </c>
-      <c r="H86" s="29">
+      <c r="H86" s="15">
         <v>13.8</v>
       </c>
-      <c r="I86" s="29">
+      <c r="I86" s="15">
         <v>17.5</v>
       </c>
-      <c r="J86" s="52">
+      <c r="J86" s="18">
         <f t="shared" si="8"/>
         <v>17.466666666666669</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="69"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="29" t="s">
+      <c r="A87" s="52"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G87" s="29">
-        <v>0</v>
-      </c>
-      <c r="H87" s="29">
-        <v>0</v>
-      </c>
-      <c r="I87" s="29">
-        <v>0</v>
-      </c>
-      <c r="J87" s="52">
+      <c r="G87" s="15">
+        <v>0</v>
+      </c>
+      <c r="H87" s="15">
+        <v>0</v>
+      </c>
+      <c r="I87" s="15">
+        <v>0</v>
+      </c>
+      <c r="J87" s="18">
         <f>AVERAGE(G87:I87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="41" t="s">
+      <c r="A88" s="20"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="66"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="38"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="40"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="38"/>
     </row>
     <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="51">
+      <c r="A90" s="39">
         <v>17</v>
       </c>
-      <c r="B90" s="84" t="s">
+      <c r="B90" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="73" t="s">
+      <c r="C90" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="42">
         <v>80</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E90" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="F90" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G90" s="26">
+      <c r="G90" s="14">
         <v>510</v>
       </c>
-      <c r="H90" s="26">
+      <c r="H90" s="14">
         <v>435</v>
       </c>
-      <c r="I90" s="26">
+      <c r="I90" s="14">
         <v>391</v>
       </c>
-      <c r="J90" s="52">
+      <c r="J90" s="18">
         <f>AVERAGE(G90:I90)</f>
         <v>445.33333333333331</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="53"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="29" t="s">
+      <c r="A91" s="40"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G91" s="29">
+      <c r="G91" s="15">
         <v>1845</v>
       </c>
-      <c r="H91" s="29">
+      <c r="H91" s="15">
         <v>4235</v>
       </c>
-      <c r="I91" s="29">
+      <c r="I91" s="15">
         <v>1458</v>
       </c>
-      <c r="J91" s="52">
+      <c r="J91" s="18">
         <f t="shared" ref="J91:J93" si="9">AVERAGE(G91:I91)</f>
         <v>2512.6666666666665</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="53"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="29" t="s">
+      <c r="A92" s="40"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G92" s="29">
+      <c r="G92" s="15">
         <v>715</v>
       </c>
-      <c r="H92" s="29">
+      <c r="H92" s="15">
         <v>693</v>
       </c>
-      <c r="I92" s="29">
+      <c r="I92" s="15">
         <v>607</v>
       </c>
-      <c r="J92" s="52">
+      <c r="J92" s="18">
         <f t="shared" si="9"/>
         <v>671.66666666666663</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="53"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="29" t="s">
+      <c r="A93" s="40"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G93" s="29">
+      <c r="G93" s="15">
         <v>16.5</v>
       </c>
-      <c r="H93" s="29">
+      <c r="H93" s="15">
         <v>11</v>
       </c>
-      <c r="I93" s="29">
+      <c r="I93" s="15">
         <v>20.399999999999999</v>
       </c>
-      <c r="J93" s="52">
+      <c r="J93" s="18">
         <f t="shared" si="9"/>
         <v>15.966666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="55"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="29" t="s">
+      <c r="A94" s="41"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G94" s="29">
-        <v>0</v>
-      </c>
-      <c r="H94" s="29">
-        <v>0</v>
-      </c>
-      <c r="I94" s="29">
-        <v>0</v>
-      </c>
-      <c r="J94" s="52">
+      <c r="G94" s="15">
+        <v>0</v>
+      </c>
+      <c r="H94" s="15">
+        <v>0</v>
+      </c>
+      <c r="I94" s="15">
+        <v>0</v>
+      </c>
+      <c r="J94" s="18">
         <f>AVERAGE(G94:I94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="86"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="41" t="s">
+      <c r="A95" s="20"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="66"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
     </row>
     <row r="96" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="40"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="38"/>
     </row>
     <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="51">
+      <c r="A97" s="39">
         <v>18</v>
       </c>
-      <c r="B97" s="84" t="s">
+      <c r="B97" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="73" t="s">
+      <c r="C97" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="42">
         <v>40</v>
       </c>
-      <c r="E97" s="25">
-        <v>0</v>
-      </c>
-      <c r="F97" s="26" t="s">
+      <c r="E97" s="45">
+        <v>0</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G97" s="26">
+      <c r="G97" s="14">
         <v>413</v>
       </c>
-      <c r="H97" s="26">
+      <c r="H97" s="14">
         <v>387</v>
       </c>
-      <c r="I97" s="26">
+      <c r="I97" s="14">
         <v>475</v>
       </c>
-      <c r="J97" s="52">
+      <c r="J97" s="18">
         <f>AVERAGE(G97:I97)</f>
         <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="53"/>
-      <c r="B98" s="85"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="29" t="s">
+      <c r="A98" s="40"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G98" s="29">
+      <c r="G98" s="15">
         <v>1389</v>
       </c>
-      <c r="H98" s="29">
+      <c r="H98" s="15">
         <v>1476</v>
       </c>
-      <c r="I98" s="29">
+      <c r="I98" s="15">
         <v>954</v>
       </c>
-      <c r="J98" s="52">
+      <c r="J98" s="18">
         <f t="shared" ref="J98:J100" si="10">AVERAGE(G98:I98)</f>
         <v>1273</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="53"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="29" t="s">
+      <c r="A99" s="40"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G99" s="29">
+      <c r="G99" s="15">
         <v>608</v>
       </c>
-      <c r="H99" s="29">
+      <c r="H99" s="15">
         <v>739</v>
       </c>
-      <c r="I99" s="29">
+      <c r="I99" s="15">
         <v>632</v>
       </c>
-      <c r="J99" s="52">
+      <c r="J99" s="18">
         <f t="shared" si="10"/>
         <v>659.66666666666663</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="53"/>
-      <c r="B100" s="85"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="29" t="s">
+      <c r="A100" s="40"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G100" s="29">
+      <c r="G100" s="15">
         <v>28.8</v>
       </c>
-      <c r="H100" s="29">
+      <c r="H100" s="15">
         <v>27.1</v>
       </c>
-      <c r="I100" s="29">
+      <c r="I100" s="15">
         <v>41.8</v>
       </c>
-      <c r="J100" s="52">
+      <c r="J100" s="18">
         <f t="shared" si="10"/>
         <v>32.56666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="55"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="29" t="s">
+      <c r="A101" s="41"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G101" s="29">
-        <v>0</v>
-      </c>
-      <c r="H101" s="29">
-        <v>0</v>
-      </c>
-      <c r="I101" s="29">
-        <v>0</v>
-      </c>
-      <c r="J101" s="52">
+      <c r="G101" s="15">
+        <v>0</v>
+      </c>
+      <c r="H101" s="15">
+        <v>0</v>
+      </c>
+      <c r="I101" s="15">
+        <v>0</v>
+      </c>
+      <c r="J101" s="18">
         <f>AVERAGE(G101:I101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="56"/>
-      <c r="B102" s="86"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="41" t="s">
+      <c r="A102" s="20"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="66"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="32"/>
     </row>
     <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="38"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="40"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="38"/>
     </row>
     <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="51">
+      <c r="A104" s="39">
         <v>18</v>
       </c>
-      <c r="B104" s="84" t="s">
+      <c r="B104" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="81" t="s">
+      <c r="C104" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D104" s="24">
+      <c r="D104" s="42">
         <v>500</v>
       </c>
-      <c r="E104" s="25">
+      <c r="E104" s="45">
         <v>1</v>
       </c>
-      <c r="F104" s="26" t="s">
+      <c r="F104" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G104" s="26">
+      <c r="G104" s="14">
         <v>544</v>
       </c>
-      <c r="H104" s="26">
+      <c r="H104" s="14">
         <v>623</v>
       </c>
-      <c r="I104" s="26">
+      <c r="I104" s="14">
         <v>586</v>
       </c>
-      <c r="J104" s="52">
+      <c r="J104" s="18">
         <f>AVERAGE(G104:I104)</f>
         <v>584.33333333333337</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="53"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="74"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="29" t="s">
+      <c r="A105" s="40"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G105" s="29">
+      <c r="G105" s="15">
         <v>5688</v>
       </c>
-      <c r="H105" s="29">
+      <c r="H105" s="15">
         <v>3081</v>
       </c>
-      <c r="I105" s="29">
+      <c r="I105" s="15">
         <v>2267</v>
       </c>
-      <c r="J105" s="52">
+      <c r="J105" s="18">
         <f t="shared" ref="J105:J108" si="11">AVERAGE(G105:I105)</f>
         <v>3678.6666666666665</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="53"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="74"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="29" t="s">
+      <c r="A106" s="40"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G106" s="29">
+      <c r="G106" s="15">
         <v>1495</v>
       </c>
-      <c r="H106" s="29">
+      <c r="H106" s="15">
         <v>1377</v>
       </c>
-      <c r="I106" s="29">
+      <c r="I106" s="15">
         <v>1136</v>
       </c>
-      <c r="J106" s="52">
+      <c r="J106" s="18">
         <f t="shared" si="11"/>
         <v>1336</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="53"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="74"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="29" t="s">
+      <c r="A107" s="40"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G107" s="29">
+      <c r="G107" s="15">
         <v>84.1</v>
       </c>
-      <c r="H107" s="29">
+      <c r="H107" s="15">
         <v>122.3</v>
       </c>
-      <c r="I107" s="29">
+      <c r="I107" s="15">
         <v>155.5</v>
       </c>
-      <c r="J107" s="52">
+      <c r="J107" s="18">
         <f t="shared" si="11"/>
         <v>120.63333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="55"/>
-      <c r="B108" s="85"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="29" t="s">
+      <c r="A108" s="41"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="29">
-        <v>0</v>
-      </c>
-      <c r="H108" s="29">
-        <v>0</v>
-      </c>
-      <c r="I108" s="29">
-        <v>0</v>
-      </c>
-      <c r="J108" s="52">
+      <c r="G108" s="15">
+        <v>0</v>
+      </c>
+      <c r="H108" s="15">
+        <v>0</v>
+      </c>
+      <c r="I108" s="15">
+        <v>0</v>
+      </c>
+      <c r="J108" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="70"/>
-      <c r="B109" s="86"/>
-      <c r="C109" s="75"/>
-      <c r="D109" s="71" t="s">
+      <c r="A109" s="25"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="72"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="80"/>
     </row>
     <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4753,31 +4761,45 @@
     <row r="985" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="D88:J88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D95:J95"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="C97:C102"/>
-    <mergeCell ref="A96:J96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="E90:E94"/>
-    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="A103:J103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="D109:J109"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="A82:J82"/>
     <mergeCell ref="A83:A87"/>
@@ -4795,19 +4817,6 @@
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D18:J18"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="E26:E30"/>
@@ -4815,24 +4824,31 @@
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="A38:A42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="D88:J88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D95:J95"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="C97:C102"/>
+    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B38:B42"/>
     <mergeCell ref="A63:J63"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="D64:D68"/>
@@ -4846,14 +4862,6 @@
     <mergeCell ref="D76:D80"/>
     <mergeCell ref="E76:E80"/>
     <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A103:J103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="D109:J109"/>
-    <mergeCell ref="B104:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4875,16 +4883,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="84"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4967,10 +4975,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="84"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -5053,10 +5061,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="84"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -5139,10 +5147,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="84"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -5225,10 +5233,10 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="85"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
@@ -5255,10 +5263,10 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="86"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -5285,10 +5293,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="7"/>
+      <c r="B58" s="86"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
@@ -5315,10 +5323,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="86"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -5350,15 +5358,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Báo cáo Jmeter.xlsx
+++ b/Báo cáo Jmeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\DATN-VASCARA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA5FC9-72AF-440A-8030-F6C03D3D7CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449A6FB3-A1B5-4981-960D-1324EE2CF36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0561319F-1241-4301-AA24-CE34BEB949AF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
   <si>
     <t>Bảng hình ảnh</t>
   </si>
@@ -350,13 +350,22 @@
   <si>
     <t xml:space="preserve">Stress test
 </t>
+  </si>
+  <si>
+    <t>Actual Output</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Untesed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +421,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,12 +467,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -849,17 +888,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -934,12 +962,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -966,13 +1133,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -985,12 +1147,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -999,15 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,7 +1180,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1048,27 +1195,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,29 +1223,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,18 +1246,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{FAE36DC4-E0E2-4539-A663-0F958EA2E423}"/>
+    <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="3" xr:uid="{E27BAD5B-6D8C-4C08-91C8-BD97D5E018EB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1458,13 +1684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79517BEB-E643-48D2-B221-A6820741801A}">
-  <dimension ref="A1:AW985"/>
+  <dimension ref="A1:AV985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.109375" style="6" customWidth="1"/>
@@ -1476,57 +1702,67 @@
     <col min="8" max="8" width="13" style="6" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="27" width="9.5546875" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="14" style="6"/>
+    <col min="11" max="26" width="9.5546875" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="14" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:49" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+    <row r="1" spans="1:48" ht="18.75" customHeight="1"/>
+    <row r="2" spans="1:48" ht="44.25" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-    </row>
-    <row r="3" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:49" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:48" ht="18.75" customHeight="1">
+      <c r="M3" s="66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="20.25" customHeight="1">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-    </row>
-    <row r="5" spans="1:49" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="47"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A5" s="55"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
@@ -1539,8 +1775,12 @@
       <c r="J5" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="65"/>
+      <c r="M5" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1551,9 +1791,11 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="97"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="67" t="s">
+        <v>105</v>
+      </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -1589,22 +1831,21 @@
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
       <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-    </row>
-    <row r="7" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+    </row>
+    <row r="7" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A7" s="38">
         <v>1</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="75">
         <v>10</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="74">
         <v>0</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -1623,13 +1864,16 @@
         <f>AVERAGE(G7:I7)</f>
         <v>26.333333333333332</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="46"/>
+      <c r="K7" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="15" t="s">
         <v>31</v>
       </c>
@@ -1646,13 +1890,14 @@
         <f t="shared" ref="J8:J23" si="0">AVERAGE(G8:I8)</f>
         <v>556.33333333333337</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="46"/>
+      <c r="K8" s="98"/>
+    </row>
+    <row r="9" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
@@ -1669,13 +1914,14 @@
         <f t="shared" si="0"/>
         <v>168.33333333333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="46"/>
+      <c r="K9" s="98"/>
+    </row>
+    <row r="10" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="15" t="s">
         <v>33</v>
       </c>
@@ -1692,13 +1938,14 @@
         <f t="shared" si="0"/>
         <v>95.333333333333329</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="47"/>
+      <c r="K10" s="98"/>
+    </row>
+    <row r="11" spans="1:48" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A11" s="73"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="15" t="s">
         <v>34</v>
       </c>
@@ -1715,33 +1962,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" s="90" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-    </row>
-    <row r="13" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64">
+      <c r="K11" s="99"/>
+    </row>
+    <row r="12" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="100"/>
+    </row>
+    <row r="13" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A13" s="72">
         <v>2</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="65">
+      <c r="C13" s="44"/>
+      <c r="D13" s="69">
         <v>100</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="40">
         <v>0</v>
       </c>
       <c r="F13" s="15" t="s">
@@ -1760,13 +2007,16 @@
         <f t="shared" si="0"/>
         <v>34.666666666666664</v>
       </c>
-    </row>
-    <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="46"/>
+      <c r="K13" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
@@ -1783,13 +2033,14 @@
         <f t="shared" si="0"/>
         <v>2759.6666666666665</v>
       </c>
-    </row>
-    <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="46"/>
+      <c r="K14" s="98"/>
+    </row>
+    <row r="15" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
@@ -1806,13 +2057,14 @@
         <f t="shared" si="0"/>
         <v>466.66666666666669</v>
       </c>
-    </row>
-    <row r="16" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="46"/>
+      <c r="K15" s="98"/>
+    </row>
+    <row r="16" spans="1:48" ht="18.75" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
@@ -1829,13 +2081,14 @@
         <f t="shared" si="0"/>
         <v>283.4666666666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="47"/>
+      <c r="K16" s="98"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
@@ -1852,33 +2105,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64">
+      <c r="K17" s="99"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="100"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A19" s="72">
         <v>3</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="65">
+      <c r="C19" s="44"/>
+      <c r="D19" s="69">
         <v>1000</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="40">
         <v>0</v>
       </c>
       <c r="F19" s="15" t="s">
@@ -1897,13 +2150,16 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="46"/>
+      <c r="K19" s="98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="15" t="s">
         <v>31</v>
       </c>
@@ -1920,13 +2176,14 @@
         <f t="shared" si="0"/>
         <v>4217.666666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="46"/>
+      <c r="K20" s="98"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="15" t="s">
         <v>32</v>
       </c>
@@ -1943,13 +2200,14 @@
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="46"/>
+      <c r="K21" s="98"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="15" t="s">
         <v>33</v>
       </c>
@@ -1966,13 +2224,14 @@
         <f t="shared" si="0"/>
         <v>1048.8333333333333</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="47"/>
+      <c r="K22" s="98"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A23" s="73"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="15" t="s">
         <v>34</v>
       </c>
@@ -1989,47 +2248,48 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39">
+      <c r="K23" s="99"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="100"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="101"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A26" s="29">
         <v>4</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="32">
         <v>10</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
       <c r="F26" s="14" t="s">
@@ -2048,13 +2308,16 @@
         <f>AVERAGE(G26:I26)</f>
         <v>30.666666666666668</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="46"/>
+      <c r="K26" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="15" t="s">
         <v>31</v>
       </c>
@@ -2071,13 +2334,14 @@
         <f t="shared" ref="J27:J42" si="1">AVERAGE(G27:I27)</f>
         <v>611.66666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="46"/>
+      <c r="K27" s="98"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A28" s="30"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="15" t="s">
         <v>32</v>
       </c>
@@ -2094,13 +2358,14 @@
         <f t="shared" si="1"/>
         <v>196.33333333333334</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="46"/>
+      <c r="K28" s="98"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="15" t="s">
         <v>33</v>
       </c>
@@ -2117,13 +2382,14 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="47"/>
+      <c r="K29" s="98"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="15" t="s">
         <v>34</v>
       </c>
@@ -2140,33 +2406,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64">
+      <c r="K30" s="98"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="102"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A32" s="48">
         <v>5</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="65">
+      <c r="C32" s="44"/>
+      <c r="D32" s="49">
         <v>100</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="40">
         <v>0</v>
       </c>
       <c r="F32" s="15" t="s">
@@ -2185,13 +2451,16 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="46"/>
+      <c r="K32" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A33" s="30"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="15" t="s">
         <v>31</v>
       </c>
@@ -2208,13 +2477,14 @@
         <f t="shared" si="1"/>
         <v>1190.6666666666667</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="46"/>
+      <c r="K33" s="98"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="15" t="s">
         <v>32</v>
       </c>
@@ -2231,13 +2501,14 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="46"/>
+      <c r="K34" s="98"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A35" s="30"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="15" t="s">
         <v>33</v>
       </c>
@@ -2254,13 +2525,14 @@
         <f t="shared" si="1"/>
         <v>495.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="47"/>
+      <c r="K35" s="98"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A36" s="31"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="15" t="s">
         <v>34</v>
       </c>
@@ -2277,33 +2549,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64">
+      <c r="K36" s="98"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="102"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A38" s="48">
         <v>6</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="65">
+      <c r="C38" s="44"/>
+      <c r="D38" s="49">
         <v>1000</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38" s="40">
         <v>0</v>
       </c>
       <c r="F38" s="15" t="s">
@@ -2322,13 +2594,16 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="46"/>
+      <c r="K38" s="98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A39" s="30"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="15" t="s">
         <v>31</v>
       </c>
@@ -2345,13 +2620,14 @@
         <f t="shared" si="1"/>
         <v>12195.333333333334</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="46"/>
+      <c r="K39" s="98"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A40" s="30"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="15" t="s">
         <v>32</v>
       </c>
@@ -2368,13 +2644,14 @@
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="46"/>
+      <c r="K40" s="98"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="15" t="s">
         <v>33</v>
       </c>
@@ -2391,13 +2668,14 @@
         <f t="shared" si="1"/>
         <v>486.83333333333331</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="46"/>
+      <c r="K41" s="98"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A42" s="30"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="16" t="s">
         <v>34</v>
       </c>
@@ -2410,51 +2688,52 @@
       <c r="I42" s="16">
         <v>0</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="59"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
-    </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39">
+      <c r="K42" s="98"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="102"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A44" s="94"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="101"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A45" s="29">
         <v>8</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="32">
         <v>10</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="35">
         <v>0</v>
       </c>
       <c r="F45" s="14" t="s">
@@ -2473,13 +2752,16 @@
         <f>AVERAGE(G45:I45)</f>
         <v>362.66666666666669</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="46"/>
+      <c r="K45" s="103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A46" s="30"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="15" t="s">
         <v>31</v>
       </c>
@@ -2496,13 +2778,14 @@
         <f t="shared" ref="J46:J49" si="2">AVERAGE(G46:I46)</f>
         <v>427.33333333333331</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="46"/>
+      <c r="K46" s="98"/>
+    </row>
+    <row r="47" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A47" s="30"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="15" t="s">
         <v>32</v>
       </c>
@@ -2519,13 +2802,14 @@
         <f t="shared" si="2"/>
         <v>397</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="46"/>
+      <c r="K47" s="98"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A48" s="30"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="15" t="s">
         <v>33</v>
       </c>
@@ -2542,13 +2826,14 @@
         <f t="shared" si="2"/>
         <v>23.466666666666665</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="47"/>
+      <c r="K48" s="98"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A49" s="31"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="15" t="s">
         <v>34</v>
       </c>
@@ -2565,33 +2850,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="73"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="64">
+      <c r="K49" s="98"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="104"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A51" s="48">
         <v>9</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="65">
+      <c r="C51" s="44"/>
+      <c r="D51" s="49">
         <v>100</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="40">
         <v>0</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -2610,13 +2895,16 @@
         <f t="shared" ref="J51:J55" si="3">AVERAGE(G51:I51)</f>
         <v>551.66666666666663</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="46"/>
+      <c r="K51" s="103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A52" s="30"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="15" t="s">
         <v>31</v>
       </c>
@@ -2633,13 +2921,14 @@
         <f t="shared" si="3"/>
         <v>1180.6666666666667</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="46"/>
+      <c r="K52" s="98"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A53" s="30"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="15" t="s">
         <v>32</v>
       </c>
@@ -2656,13 +2945,14 @@
         <f t="shared" si="3"/>
         <v>1001.6666666666666</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="46"/>
+      <c r="K53" s="98"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A54" s="30"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="15" t="s">
         <v>33</v>
       </c>
@@ -2679,13 +2969,14 @@
         <f t="shared" si="3"/>
         <v>83.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="47"/>
+      <c r="K54" s="98"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="15" t="s">
         <v>34</v>
       </c>
@@ -2702,33 +2993,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="73"/>
-    </row>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64">
+      <c r="K55" s="98"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="104"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A57" s="48">
         <v>10</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="65">
+      <c r="C57" s="44"/>
+      <c r="D57" s="49">
         <v>1000</v>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="40">
         <v>0</v>
       </c>
       <c r="F57" s="15" t="s">
@@ -2747,13 +3038,16 @@
         <f t="shared" ref="J57:J61" si="4">AVERAGE(G57:I57)</f>
         <v>436.66666666666669</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="46"/>
+      <c r="K57" s="103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A58" s="30"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="15" t="s">
         <v>31</v>
       </c>
@@ -2770,13 +3064,14 @@
         <f t="shared" si="4"/>
         <v>5106.666666666667</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="46"/>
+      <c r="K58" s="98"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A59" s="30"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="15" t="s">
         <v>32</v>
       </c>
@@ -2793,13 +3088,14 @@
         <f t="shared" si="4"/>
         <v>1830.3333333333333</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="46"/>
+      <c r="K59" s="98"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A60" s="30"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="15" t="s">
         <v>33</v>
       </c>
@@ -2816,13 +3112,14 @@
         <f t="shared" si="4"/>
         <v>126.66666666666667</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="47"/>
+      <c r="K60" s="98"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A61" s="31"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="15" t="s">
         <v>34</v>
       </c>
@@ -2839,47 +3136,48 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="32"/>
-    </row>
-    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="38"/>
-    </row>
-    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="39">
+      <c r="K61" s="98"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A62" s="76"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="87"/>
+      <c r="K62" s="104"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A63" s="94"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="101"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A64" s="29">
         <v>11</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="32">
         <v>10</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="35">
         <v>0</v>
       </c>
       <c r="F64" s="14" t="s">
@@ -2898,13 +3196,16 @@
         <f>AVERAGE(G64:I64)</f>
         <v>383.66666666666669</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="46"/>
+      <c r="K64" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A65" s="30"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="15" t="s">
         <v>31</v>
       </c>
@@ -2921,13 +3222,14 @@
         <f t="shared" ref="J65:J68" si="5">AVERAGE(G65:I65)</f>
         <v>454</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="46"/>
+      <c r="K65" s="98"/>
+    </row>
+    <row r="66" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A66" s="30"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="15" t="s">
         <v>32</v>
       </c>
@@ -2944,13 +3246,14 @@
         <f t="shared" si="5"/>
         <v>408.33333333333331</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="46"/>
+      <c r="K66" s="98"/>
+    </row>
+    <row r="67" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A67" s="30"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="15" t="s">
         <v>33</v>
       </c>
@@ -2967,13 +3270,14 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="47"/>
+      <c r="K67" s="98"/>
+    </row>
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A68" s="31"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="37"/>
       <c r="F68" s="15" t="s">
         <v>34</v>
       </c>
@@ -2990,33 +3294,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="78"/>
-    </row>
-    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="64">
+      <c r="K68" s="99"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A69" s="76"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="100"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A70" s="48">
         <v>12</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="65">
+      <c r="C70" s="44"/>
+      <c r="D70" s="49">
         <v>100</v>
       </c>
-      <c r="E70" s="50">
+      <c r="E70" s="40">
         <v>0</v>
       </c>
       <c r="F70" s="15" t="s">
@@ -3035,13 +3339,16 @@
         <f t="shared" ref="J70:J74" si="6">AVERAGE(G70:I70)</f>
         <v>1296</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="46"/>
+      <c r="K70" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="36"/>
       <c r="F71" s="15" t="s">
         <v>31</v>
       </c>
@@ -3058,13 +3365,14 @@
         <f t="shared" si="6"/>
         <v>2603</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="46"/>
+      <c r="K71" s="98"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A72" s="30"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="15" t="s">
         <v>32</v>
       </c>
@@ -3081,13 +3389,14 @@
         <f t="shared" si="6"/>
         <v>2061</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="46"/>
+      <c r="K72" s="98"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A73" s="30"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="15" t="s">
         <v>33</v>
       </c>
@@ -3104,13 +3413,14 @@
         <f t="shared" si="6"/>
         <v>38.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="47"/>
+      <c r="K73" s="98"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A74" s="31"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="37"/>
       <c r="F74" s="15" t="s">
         <v>34</v>
       </c>
@@ -3127,33 +3437,33 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="73"/>
-    </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="64">
+      <c r="K74" s="99"/>
+    </row>
+    <row r="75" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A75" s="76"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="100"/>
+    </row>
+    <row r="76" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A76" s="48">
         <v>13</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="65">
+      <c r="C76" s="44"/>
+      <c r="D76" s="49">
         <v>1000</v>
       </c>
-      <c r="E76" s="50">
+      <c r="E76" s="40">
         <v>0</v>
       </c>
       <c r="F76" s="15" t="s">
@@ -3172,13 +3482,16 @@
         <f t="shared" ref="J76:J79" si="7">AVERAGE(G76:I76)</f>
         <v>4820.666666666667</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="46"/>
+      <c r="K76" s="98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A77" s="30"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="36"/>
       <c r="F77" s="15" t="s">
         <v>31</v>
       </c>
@@ -3195,13 +3508,14 @@
         <f t="shared" si="7"/>
         <v>42869</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="46"/>
+      <c r="K77" s="98"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A78" s="30"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="15" t="s">
         <v>32</v>
       </c>
@@ -3218,13 +3532,14 @@
         <f t="shared" si="7"/>
         <v>21822.666666666668</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="46"/>
+      <c r="K78" s="98"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="15" t="s">
         <v>33</v>
       </c>
@@ -3241,13 +3556,14 @@
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="41"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="47"/>
+      <c r="K79" s="98"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A80" s="31"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="37"/>
       <c r="F80" s="15" t="s">
         <v>34</v>
       </c>
@@ -3264,47 +3580,48 @@
         <f>AVERAGE(G80:I80)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="32"/>
-    </row>
-    <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="36"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="38"/>
-    </row>
-    <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="51">
+      <c r="K80" s="99"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A81" s="76"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="87"/>
+      <c r="K81" s="105"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A82" s="94"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="101"/>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A83" s="41">
         <v>16</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="42">
+      <c r="D83" s="32">
         <v>80</v>
       </c>
-      <c r="E83" s="45" t="s">
+      <c r="E83" s="35" t="s">
         <v>97</v>
       </c>
       <c r="F83" s="14" t="s">
@@ -3323,13 +3640,16 @@
         <f>AVERAGE(G83:I83)</f>
         <v>440.66666666666669</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="46"/>
+      <c r="K83" s="106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A84" s="29"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="36"/>
       <c r="F84" s="15" t="s">
         <v>31</v>
       </c>
@@ -3346,13 +3666,14 @@
         <f t="shared" ref="J84:J86" si="8">AVERAGE(G84:I84)</f>
         <v>1968.3333333333333</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="46"/>
+      <c r="K84" s="106"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A85" s="29"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="36"/>
       <c r="F85" s="15" t="s">
         <v>32</v>
       </c>
@@ -3369,13 +3690,14 @@
         <f t="shared" si="8"/>
         <v>833</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="46"/>
+      <c r="K85" s="106"/>
+    </row>
+    <row r="86" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A86" s="29"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="36"/>
       <c r="F86" s="15" t="s">
         <v>33</v>
       </c>
@@ -3392,13 +3714,14 @@
         <f t="shared" si="8"/>
         <v>17.466666666666669</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="52"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="47"/>
+      <c r="K86" s="106"/>
+    </row>
+    <row r="87" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A87" s="42"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="37"/>
       <c r="F87" s="15" t="s">
         <v>34</v>
       </c>
@@ -3415,47 +3738,48 @@
         <f>AVERAGE(G87:I87)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="20"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="36"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="38"/>
-    </row>
-    <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="K87" s="106"/>
+    </row>
+    <row r="88" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A88" s="76"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="86"/>
+      <c r="I88" s="86"/>
+      <c r="J88" s="87"/>
+      <c r="K88" s="105"/>
+    </row>
+    <row r="89" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A89" s="94"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="95"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="101"/>
+    </row>
+    <row r="90" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A90" s="29">
         <v>17</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="42">
+      <c r="D90" s="32">
         <v>80</v>
       </c>
-      <c r="E90" s="45" t="s">
+      <c r="E90" s="35" t="s">
         <v>97</v>
       </c>
       <c r="F90" s="14" t="s">
@@ -3474,13 +3798,16 @@
         <f>AVERAGE(G90:I90)</f>
         <v>445.33333333333331</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="46"/>
+      <c r="K90" s="106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A91" s="30"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="36"/>
       <c r="F91" s="15" t="s">
         <v>31</v>
       </c>
@@ -3497,13 +3824,14 @@
         <f t="shared" ref="J91:J93" si="9">AVERAGE(G91:I91)</f>
         <v>2512.6666666666665</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="46"/>
+      <c r="K91" s="106"/>
+    </row>
+    <row r="92" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A92" s="30"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="36"/>
       <c r="F92" s="15" t="s">
         <v>32</v>
       </c>
@@ -3520,13 +3848,14 @@
         <f t="shared" si="9"/>
         <v>671.66666666666663</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="46"/>
+      <c r="K92" s="106"/>
+    </row>
+    <row r="93" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A93" s="30"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="36"/>
       <c r="F93" s="15" t="s">
         <v>33</v>
       </c>
@@ -3543,13 +3872,14 @@
         <f t="shared" si="9"/>
         <v>15.966666666666667</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="41"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="47"/>
+      <c r="K93" s="106"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A94" s="31"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="37"/>
       <c r="F94" s="15" t="s">
         <v>34</v>
       </c>
@@ -3566,47 +3896,48 @@
         <f>AVERAGE(G94:I94)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="20"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="32"/>
-    </row>
-    <row r="96" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="36"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="38"/>
-    </row>
-    <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="39">
+      <c r="K94" s="106"/>
+    </row>
+    <row r="95" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A95" s="76"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="90"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="86"/>
+      <c r="I95" s="86"/>
+      <c r="J95" s="87"/>
+      <c r="K95" s="105"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A96" s="94"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
+      <c r="H96" s="95"/>
+      <c r="I96" s="95"/>
+      <c r="J96" s="95"/>
+      <c r="K96" s="101"/>
+    </row>
+    <row r="97" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A97" s="29">
         <v>18</v>
       </c>
-      <c r="B97" s="48" t="s">
+      <c r="B97" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="33" t="s">
+      <c r="C97" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D97" s="42">
+      <c r="D97" s="32">
         <v>40</v>
       </c>
-      <c r="E97" s="45">
+      <c r="E97" s="35">
         <v>0</v>
       </c>
       <c r="F97" s="14" t="s">
@@ -3625,13 +3956,16 @@
         <f>AVERAGE(G97:I97)</f>
         <v>425</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="46"/>
+      <c r="K97" s="106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A98" s="30"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="15" t="s">
         <v>31</v>
       </c>
@@ -3648,13 +3982,14 @@
         <f t="shared" ref="J98:J100" si="10">AVERAGE(G98:I98)</f>
         <v>1273</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="46"/>
+      <c r="K98" s="106"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A99" s="30"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="36"/>
       <c r="F99" s="15" t="s">
         <v>32</v>
       </c>
@@ -3671,13 +4006,14 @@
         <f t="shared" si="10"/>
         <v>659.66666666666663</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="46"/>
+      <c r="K99" s="106"/>
+    </row>
+    <row r="100" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A100" s="30"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="36"/>
       <c r="F100" s="15" t="s">
         <v>33</v>
       </c>
@@ -3694,13 +4030,14 @@
         <f t="shared" si="10"/>
         <v>32.56666666666667</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="41"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="47"/>
+      <c r="K100" s="106"/>
+    </row>
+    <row r="101" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A101" s="31"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="37"/>
       <c r="F101" s="15" t="s">
         <v>34</v>
       </c>
@@ -3717,47 +4054,48 @@
         <f>AVERAGE(G101:I101)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="20"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="32"/>
-    </row>
-    <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="38"/>
-    </row>
-    <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="39">
+      <c r="K101" s="106"/>
+    </row>
+    <row r="102" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A102" s="76"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="86"/>
+      <c r="J102" s="87"/>
+      <c r="K102" s="105"/>
+    </row>
+    <row r="103" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A103" s="94"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="95"/>
+      <c r="I103" s="95"/>
+      <c r="J103" s="95"/>
+      <c r="K103" s="101"/>
+    </row>
+    <row r="104" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A104" s="29">
         <v>18</v>
       </c>
-      <c r="B104" s="48" t="s">
+      <c r="B104" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D104" s="42">
+      <c r="D104" s="32">
         <v>500</v>
       </c>
-      <c r="E104" s="45">
+      <c r="E104" s="35">
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
@@ -3776,13 +4114,16 @@
         <f>AVERAGE(G104:I104)</f>
         <v>584.33333333333337</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="46"/>
+      <c r="K104" s="106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A105" s="30"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="36"/>
       <c r="F105" s="15" t="s">
         <v>31</v>
       </c>
@@ -3799,13 +4140,14 @@
         <f t="shared" ref="J105:J108" si="11">AVERAGE(G105:I105)</f>
         <v>3678.6666666666665</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="46"/>
+      <c r="K105" s="106"/>
+    </row>
+    <row r="106" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A106" s="30"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="36"/>
       <c r="F106" s="15" t="s">
         <v>32</v>
       </c>
@@ -3822,13 +4164,14 @@
         <f t="shared" si="11"/>
         <v>1336</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="46"/>
+      <c r="K106" s="106"/>
+    </row>
+    <row r="107" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A107" s="30"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="36"/>
       <c r="F107" s="15" t="s">
         <v>33</v>
       </c>
@@ -3845,13 +4188,14 @@
         <f t="shared" si="11"/>
         <v>120.63333333333333</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="41"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="47"/>
+      <c r="K107" s="106"/>
+    </row>
+    <row r="108" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A108" s="31"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="37"/>
       <c r="F108" s="15" t="s">
         <v>34</v>
       </c>
@@ -3868,900 +4212,923 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="25"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="79"/>
-      <c r="I109" s="79"/>
-      <c r="J109" s="80"/>
-    </row>
-    <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="K108" s="106"/>
+    </row>
+    <row r="109" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A109" s="91"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="92"/>
+      <c r="G109" s="92"/>
+      <c r="H109" s="92"/>
+      <c r="I109" s="92"/>
+      <c r="J109" s="93"/>
+      <c r="K109" s="107"/>
+    </row>
+    <row r="110" spans="1:11" ht="18.75" customHeight="1"/>
+    <row r="111" spans="1:11" ht="18.75" customHeight="1"/>
+    <row r="112" spans="1:11" ht="18.75" customHeight="1"/>
+    <row r="113" ht="18.75" customHeight="1"/>
+    <row r="114" ht="18.75" customHeight="1"/>
+    <row r="115" ht="18.75" customHeight="1"/>
+    <row r="116" ht="18.75" customHeight="1"/>
+    <row r="117" ht="18.75" customHeight="1"/>
+    <row r="118" ht="18.75" customHeight="1"/>
+    <row r="119" ht="18.75" customHeight="1"/>
+    <row r="120" ht="18.75" customHeight="1"/>
+    <row r="121" ht="18.75" customHeight="1"/>
+    <row r="122" ht="18.75" customHeight="1"/>
+    <row r="123" ht="18.75" customHeight="1"/>
+    <row r="124" ht="18.75" customHeight="1"/>
+    <row r="125" ht="18.75" customHeight="1"/>
+    <row r="126" ht="18.75" customHeight="1"/>
+    <row r="127" ht="18.75" customHeight="1"/>
+    <row r="128" ht="18.75" customHeight="1"/>
+    <row r="129" ht="18.75" customHeight="1"/>
+    <row r="130" ht="18.75" customHeight="1"/>
+    <row r="131" ht="18.75" customHeight="1"/>
+    <row r="132" ht="18.75" customHeight="1"/>
+    <row r="133" ht="18.75" customHeight="1"/>
+    <row r="134" ht="18.75" customHeight="1"/>
+    <row r="135" ht="18.75" customHeight="1"/>
+    <row r="136" ht="18.75" customHeight="1"/>
+    <row r="137" ht="18.75" customHeight="1"/>
+    <row r="138" ht="18.75" customHeight="1"/>
+    <row r="139" ht="18.75" customHeight="1"/>
+    <row r="140" ht="18.75" customHeight="1"/>
+    <row r="141" ht="18.75" customHeight="1"/>
+    <row r="142" ht="18.75" customHeight="1"/>
+    <row r="143" ht="18.75" customHeight="1"/>
+    <row r="144" ht="18.75" customHeight="1"/>
+    <row r="145" ht="18.75" customHeight="1"/>
+    <row r="146" ht="18.75" customHeight="1"/>
+    <row r="147" ht="18.75" customHeight="1"/>
+    <row r="148" ht="18.75" customHeight="1"/>
+    <row r="149" ht="18.75" customHeight="1"/>
+    <row r="150" ht="18.75" customHeight="1"/>
+    <row r="151" ht="18.75" customHeight="1"/>
+    <row r="152" ht="18.75" customHeight="1"/>
+    <row r="153" ht="18.75" customHeight="1"/>
+    <row r="154" ht="18.75" customHeight="1"/>
+    <row r="155" ht="18.75" customHeight="1"/>
+    <row r="156" ht="18.75" customHeight="1"/>
+    <row r="157" ht="18.75" customHeight="1"/>
+    <row r="158" ht="18.75" customHeight="1"/>
+    <row r="159" ht="18.75" customHeight="1"/>
+    <row r="160" ht="18.75" customHeight="1"/>
+    <row r="161" ht="18.75" customHeight="1"/>
+    <row r="162" ht="18.75" customHeight="1"/>
+    <row r="163" ht="18.75" customHeight="1"/>
+    <row r="164" ht="18.75" customHeight="1"/>
+    <row r="165" ht="18.75" customHeight="1"/>
+    <row r="166" ht="18.75" customHeight="1"/>
+    <row r="167" ht="18.75" customHeight="1"/>
+    <row r="168" ht="18.75" customHeight="1"/>
+    <row r="169" ht="18.75" customHeight="1"/>
+    <row r="170" ht="18.75" customHeight="1"/>
+    <row r="171" ht="18.75" customHeight="1"/>
+    <row r="172" ht="18.75" customHeight="1"/>
+    <row r="173" ht="18.75" customHeight="1"/>
+    <row r="174" ht="18.75" customHeight="1"/>
+    <row r="175" ht="18.75" customHeight="1"/>
+    <row r="176" ht="18.75" customHeight="1"/>
+    <row r="177" ht="18.75" customHeight="1"/>
+    <row r="178" ht="18.75" customHeight="1"/>
+    <row r="179" ht="18.75" customHeight="1"/>
+    <row r="180" ht="18.75" customHeight="1"/>
+    <row r="181" ht="18.75" customHeight="1"/>
+    <row r="182" ht="18.75" customHeight="1"/>
+    <row r="183" ht="18.75" customHeight="1"/>
+    <row r="184" ht="18.75" customHeight="1"/>
+    <row r="185" ht="18.75" customHeight="1"/>
+    <row r="186" ht="18.75" customHeight="1"/>
+    <row r="187" ht="18.75" customHeight="1"/>
+    <row r="188" ht="18.75" customHeight="1"/>
+    <row r="189" ht="18.75" customHeight="1"/>
+    <row r="190" ht="18.75" customHeight="1"/>
+    <row r="191" ht="18.75" customHeight="1"/>
+    <row r="192" ht="18.75" customHeight="1"/>
+    <row r="193" ht="18.75" customHeight="1"/>
+    <row r="194" ht="18.75" customHeight="1"/>
+    <row r="195" ht="18.75" customHeight="1"/>
+    <row r="196" ht="18.75" customHeight="1"/>
+    <row r="197" ht="18.75" customHeight="1"/>
+    <row r="198" ht="18.75" customHeight="1"/>
+    <row r="199" ht="18.75" customHeight="1"/>
+    <row r="200" ht="18.75" customHeight="1"/>
+    <row r="201" ht="18.75" customHeight="1"/>
+    <row r="202" ht="18.75" customHeight="1"/>
+    <row r="203" ht="18.75" customHeight="1"/>
+    <row r="204" ht="18.75" customHeight="1"/>
+    <row r="205" ht="18.75" customHeight="1"/>
+    <row r="206" ht="18.75" customHeight="1"/>
+    <row r="207" ht="18.75" customHeight="1"/>
+    <row r="208" ht="18.75" customHeight="1"/>
+    <row r="209" ht="18.75" customHeight="1"/>
+    <row r="210" ht="18.75" customHeight="1"/>
+    <row r="211" ht="18.75" customHeight="1"/>
+    <row r="212" ht="18.75" customHeight="1"/>
+    <row r="213" ht="18.75" customHeight="1"/>
+    <row r="214" ht="18.75" customHeight="1"/>
+    <row r="215" ht="18.75" customHeight="1"/>
+    <row r="216" ht="18.75" customHeight="1"/>
+    <row r="217" ht="18.75" customHeight="1"/>
+    <row r="218" ht="18.75" customHeight="1"/>
+    <row r="219" ht="18.75" customHeight="1"/>
+    <row r="220" ht="18.75" customHeight="1"/>
+    <row r="221" ht="18.75" customHeight="1"/>
+    <row r="222" ht="18.75" customHeight="1"/>
+    <row r="223" ht="18.75" customHeight="1"/>
+    <row r="224" ht="18.75" customHeight="1"/>
+    <row r="225" ht="18.75" customHeight="1"/>
+    <row r="226" ht="18.75" customHeight="1"/>
+    <row r="227" ht="18.75" customHeight="1"/>
+    <row r="228" ht="18.75" customHeight="1"/>
+    <row r="229" ht="18.75" customHeight="1"/>
+    <row r="230" ht="18.75" customHeight="1"/>
+    <row r="231" ht="18.75" customHeight="1"/>
+    <row r="232" ht="18.75" customHeight="1"/>
+    <row r="233" ht="18.75" customHeight="1"/>
+    <row r="234" ht="18.75" customHeight="1"/>
+    <row r="235" ht="18.75" customHeight="1"/>
+    <row r="236" ht="18.75" customHeight="1"/>
+    <row r="237" ht="18.75" customHeight="1"/>
+    <row r="238" ht="18.75" customHeight="1"/>
+    <row r="239" ht="18.75" customHeight="1"/>
+    <row r="240" ht="18.75" customHeight="1"/>
+    <row r="241" ht="18.75" customHeight="1"/>
+    <row r="242" ht="18.75" customHeight="1"/>
+    <row r="243" ht="18.75" customHeight="1"/>
+    <row r="244" ht="18.75" customHeight="1"/>
+    <row r="245" ht="18.75" customHeight="1"/>
+    <row r="246" ht="18.75" customHeight="1"/>
+    <row r="247" ht="18.75" customHeight="1"/>
+    <row r="248" ht="18.75" customHeight="1"/>
+    <row r="249" ht="18.75" customHeight="1"/>
+    <row r="250" ht="18.75" customHeight="1"/>
+    <row r="251" ht="18.75" customHeight="1"/>
+    <row r="252" ht="18.75" customHeight="1"/>
+    <row r="253" ht="18.75" customHeight="1"/>
+    <row r="254" ht="18.75" customHeight="1"/>
+    <row r="255" ht="18.75" customHeight="1"/>
+    <row r="256" ht="18.75" customHeight="1"/>
+    <row r="257" ht="18.75" customHeight="1"/>
+    <row r="258" ht="18.75" customHeight="1"/>
+    <row r="259" ht="18.75" customHeight="1"/>
+    <row r="260" ht="18.75" customHeight="1"/>
+    <row r="261" ht="18.75" customHeight="1"/>
+    <row r="262" ht="18.75" customHeight="1"/>
+    <row r="263" ht="18.75" customHeight="1"/>
+    <row r="264" ht="18.75" customHeight="1"/>
+    <row r="265" ht="18.75" customHeight="1"/>
+    <row r="266" ht="18.75" customHeight="1"/>
+    <row r="267" ht="18.75" customHeight="1"/>
+    <row r="268" ht="18.75" customHeight="1"/>
+    <row r="269" ht="18.75" customHeight="1"/>
+    <row r="270" ht="18.75" customHeight="1"/>
+    <row r="271" ht="18.75" customHeight="1"/>
+    <row r="272" ht="18.75" customHeight="1"/>
+    <row r="273" ht="18.75" customHeight="1"/>
+    <row r="274" ht="18.75" customHeight="1"/>
+    <row r="275" ht="18.75" customHeight="1"/>
+    <row r="276" ht="18.75" customHeight="1"/>
+    <row r="277" ht="18.75" customHeight="1"/>
+    <row r="278" ht="18.75" customHeight="1"/>
+    <row r="279" ht="18.75" customHeight="1"/>
+    <row r="280" ht="18.75" customHeight="1"/>
+    <row r="281" ht="18.75" customHeight="1"/>
+    <row r="282" ht="18.75" customHeight="1"/>
+    <row r="283" ht="18.75" customHeight="1"/>
+    <row r="284" ht="18.75" customHeight="1"/>
+    <row r="285" ht="18.75" customHeight="1"/>
+    <row r="286" ht="18.75" customHeight="1"/>
+    <row r="287" ht="18.75" customHeight="1"/>
+    <row r="288" ht="18.75" customHeight="1"/>
+    <row r="289" ht="18.75" customHeight="1"/>
+    <row r="290" ht="18.75" customHeight="1"/>
+    <row r="291" ht="18.75" customHeight="1"/>
+    <row r="292" ht="18.75" customHeight="1"/>
+    <row r="293" ht="18.75" customHeight="1"/>
+    <row r="294" ht="18.75" customHeight="1"/>
+    <row r="295" ht="18.75" customHeight="1"/>
+    <row r="296" ht="18.75" customHeight="1"/>
+    <row r="297" ht="18.75" customHeight="1"/>
+    <row r="298" ht="18.75" customHeight="1"/>
+    <row r="299" ht="18.75" customHeight="1"/>
+    <row r="300" ht="18.75" customHeight="1"/>
+    <row r="301" ht="18.75" customHeight="1"/>
+    <row r="302" ht="18.75" customHeight="1"/>
+    <row r="303" ht="18.75" customHeight="1"/>
+    <row r="304" ht="18.75" customHeight="1"/>
+    <row r="305" ht="18.75" customHeight="1"/>
+    <row r="306" ht="18.75" customHeight="1"/>
+    <row r="307" ht="18.75" customHeight="1"/>
+    <row r="308" ht="18.75" customHeight="1"/>
+    <row r="309" ht="18.75" customHeight="1"/>
+    <row r="310" ht="18.75" customHeight="1"/>
+    <row r="311" ht="18.75" customHeight="1"/>
+    <row r="312" ht="18.75" customHeight="1"/>
+    <row r="313" ht="18.75" customHeight="1"/>
+    <row r="314" ht="18.75" customHeight="1"/>
+    <row r="315" ht="18.75" customHeight="1"/>
+    <row r="316" ht="18.75" customHeight="1"/>
+    <row r="317" ht="18.75" customHeight="1"/>
+    <row r="318" ht="18.75" customHeight="1"/>
+    <row r="319" ht="18.75" customHeight="1"/>
+    <row r="320" ht="18.75" customHeight="1"/>
+    <row r="321" ht="18.75" customHeight="1"/>
+    <row r="322" ht="18.75" customHeight="1"/>
+    <row r="323" ht="18.75" customHeight="1"/>
+    <row r="324" ht="18.75" customHeight="1"/>
+    <row r="325" ht="18.75" customHeight="1"/>
+    <row r="326" ht="18.75" customHeight="1"/>
+    <row r="327" ht="18.75" customHeight="1"/>
+    <row r="328" ht="18.75" customHeight="1"/>
+    <row r="329" ht="18.75" customHeight="1"/>
+    <row r="330" ht="18.75" customHeight="1"/>
+    <row r="331" ht="18.75" customHeight="1"/>
+    <row r="332" ht="18.75" customHeight="1"/>
+    <row r="333" ht="18.75" customHeight="1"/>
+    <row r="334" ht="18.75" customHeight="1"/>
+    <row r="335" ht="18.75" customHeight="1"/>
+    <row r="336" ht="18.75" customHeight="1"/>
+    <row r="337" ht="18.75" customHeight="1"/>
+    <row r="338" ht="18.75" customHeight="1"/>
+    <row r="339" ht="18.75" customHeight="1"/>
+    <row r="340" ht="18.75" customHeight="1"/>
+    <row r="341" ht="18.75" customHeight="1"/>
+    <row r="342" ht="18.75" customHeight="1"/>
+    <row r="343" ht="18.75" customHeight="1"/>
+    <row r="344" ht="18.75" customHeight="1"/>
+    <row r="345" ht="18.75" customHeight="1"/>
+    <row r="346" ht="18.75" customHeight="1"/>
+    <row r="347" ht="18.75" customHeight="1"/>
+    <row r="348" ht="18.75" customHeight="1"/>
+    <row r="349" ht="18.75" customHeight="1"/>
+    <row r="350" ht="18.75" customHeight="1"/>
+    <row r="351" ht="18.75" customHeight="1"/>
+    <row r="352" ht="18.75" customHeight="1"/>
+    <row r="353" ht="18.75" customHeight="1"/>
+    <row r="354" ht="18.75" customHeight="1"/>
+    <row r="355" ht="18.75" customHeight="1"/>
+    <row r="356" ht="18.75" customHeight="1"/>
+    <row r="357" ht="18.75" customHeight="1"/>
+    <row r="358" ht="18.75" customHeight="1"/>
+    <row r="359" ht="18.75" customHeight="1"/>
+    <row r="360" ht="18.75" customHeight="1"/>
+    <row r="361" ht="18.75" customHeight="1"/>
+    <row r="362" ht="18.75" customHeight="1"/>
+    <row r="363" ht="18.75" customHeight="1"/>
+    <row r="364" ht="18.75" customHeight="1"/>
+    <row r="365" ht="18.75" customHeight="1"/>
+    <row r="366" ht="18.75" customHeight="1"/>
+    <row r="367" ht="18.75" customHeight="1"/>
+    <row r="368" ht="18.75" customHeight="1"/>
+    <row r="369" ht="18.75" customHeight="1"/>
+    <row r="370" ht="18.75" customHeight="1"/>
+    <row r="371" ht="18.75" customHeight="1"/>
+    <row r="372" ht="18.75" customHeight="1"/>
+    <row r="373" ht="18.75" customHeight="1"/>
+    <row r="374" ht="18.75" customHeight="1"/>
+    <row r="375" ht="18.75" customHeight="1"/>
+    <row r="376" ht="18.75" customHeight="1"/>
+    <row r="377" ht="18.75" customHeight="1"/>
+    <row r="378" ht="18.75" customHeight="1"/>
+    <row r="379" ht="18.75" customHeight="1"/>
+    <row r="380" ht="18.75" customHeight="1"/>
+    <row r="381" ht="18.75" customHeight="1"/>
+    <row r="382" ht="18.75" customHeight="1"/>
+    <row r="383" ht="18.75" customHeight="1"/>
+    <row r="384" ht="18.75" customHeight="1"/>
+    <row r="385" ht="18.75" customHeight="1"/>
+    <row r="386" ht="18.75" customHeight="1"/>
+    <row r="387" ht="18.75" customHeight="1"/>
+    <row r="388" ht="18.75" customHeight="1"/>
+    <row r="389" ht="18.75" customHeight="1"/>
+    <row r="390" ht="18.75" customHeight="1"/>
+    <row r="391" ht="18.75" customHeight="1"/>
+    <row r="392" ht="18.75" customHeight="1"/>
+    <row r="393" ht="18.75" customHeight="1"/>
+    <row r="394" ht="18.75" customHeight="1"/>
+    <row r="395" ht="18.75" customHeight="1"/>
+    <row r="396" ht="18.75" customHeight="1"/>
+    <row r="397" ht="18.75" customHeight="1"/>
+    <row r="398" ht="18.75" customHeight="1"/>
+    <row r="399" ht="18.75" customHeight="1"/>
+    <row r="400" ht="18.75" customHeight="1"/>
+    <row r="401" ht="18.75" customHeight="1"/>
+    <row r="402" ht="18.75" customHeight="1"/>
+    <row r="403" ht="18.75" customHeight="1"/>
+    <row r="404" ht="18.75" customHeight="1"/>
+    <row r="405" ht="18.75" customHeight="1"/>
+    <row r="406" ht="18.75" customHeight="1"/>
+    <row r="407" ht="18.75" customHeight="1"/>
+    <row r="408" ht="18.75" customHeight="1"/>
+    <row r="409" ht="18.75" customHeight="1"/>
+    <row r="410" ht="18.75" customHeight="1"/>
+    <row r="411" ht="18.75" customHeight="1"/>
+    <row r="412" ht="18.75" customHeight="1"/>
+    <row r="413" ht="18.75" customHeight="1"/>
+    <row r="414" ht="18.75" customHeight="1"/>
+    <row r="415" ht="18.75" customHeight="1"/>
+    <row r="416" ht="18.75" customHeight="1"/>
+    <row r="417" ht="18.75" customHeight="1"/>
+    <row r="418" ht="18.75" customHeight="1"/>
+    <row r="419" ht="18.75" customHeight="1"/>
+    <row r="420" ht="18.75" customHeight="1"/>
+    <row r="421" ht="18.75" customHeight="1"/>
+    <row r="422" ht="18.75" customHeight="1"/>
+    <row r="423" ht="18.75" customHeight="1"/>
+    <row r="424" ht="18.75" customHeight="1"/>
+    <row r="425" ht="18.75" customHeight="1"/>
+    <row r="426" ht="18.75" customHeight="1"/>
+    <row r="427" ht="18.75" customHeight="1"/>
+    <row r="428" ht="18.75" customHeight="1"/>
+    <row r="429" ht="18.75" customHeight="1"/>
+    <row r="430" ht="18.75" customHeight="1"/>
+    <row r="431" ht="18.75" customHeight="1"/>
+    <row r="432" ht="18.75" customHeight="1"/>
+    <row r="433" ht="18.75" customHeight="1"/>
+    <row r="434" ht="18.75" customHeight="1"/>
+    <row r="435" ht="18.75" customHeight="1"/>
+    <row r="436" ht="18.75" customHeight="1"/>
+    <row r="437" ht="18.75" customHeight="1"/>
+    <row r="438" ht="18.75" customHeight="1"/>
+    <row r="439" ht="18.75" customHeight="1"/>
+    <row r="440" ht="18.75" customHeight="1"/>
+    <row r="441" ht="18.75" customHeight="1"/>
+    <row r="442" ht="18.75" customHeight="1"/>
+    <row r="443" ht="18.75" customHeight="1"/>
+    <row r="444" ht="18.75" customHeight="1"/>
+    <row r="445" ht="18.75" customHeight="1"/>
+    <row r="446" ht="18.75" customHeight="1"/>
+    <row r="447" ht="18.75" customHeight="1"/>
+    <row r="448" ht="18.75" customHeight="1"/>
+    <row r="449" ht="18.75" customHeight="1"/>
+    <row r="450" ht="18.75" customHeight="1"/>
+    <row r="451" ht="18.75" customHeight="1"/>
+    <row r="452" ht="18.75" customHeight="1"/>
+    <row r="453" ht="18.75" customHeight="1"/>
+    <row r="454" ht="18.75" customHeight="1"/>
+    <row r="455" ht="18.75" customHeight="1"/>
+    <row r="456" ht="18.75" customHeight="1"/>
+    <row r="457" ht="18.75" customHeight="1"/>
+    <row r="458" ht="18.75" customHeight="1"/>
+    <row r="459" ht="18.75" customHeight="1"/>
+    <row r="460" ht="18.75" customHeight="1"/>
+    <row r="461" ht="18.75" customHeight="1"/>
+    <row r="462" ht="18.75" customHeight="1"/>
+    <row r="463" ht="18.75" customHeight="1"/>
+    <row r="464" ht="18.75" customHeight="1"/>
+    <row r="465" ht="18.75" customHeight="1"/>
+    <row r="466" ht="18.75" customHeight="1"/>
+    <row r="467" ht="18.75" customHeight="1"/>
+    <row r="468" ht="18.75" customHeight="1"/>
+    <row r="469" ht="18.75" customHeight="1"/>
+    <row r="470" ht="18.75" customHeight="1"/>
+    <row r="471" ht="18.75" customHeight="1"/>
+    <row r="472" ht="18.75" customHeight="1"/>
+    <row r="473" ht="18.75" customHeight="1"/>
+    <row r="474" ht="18.75" customHeight="1"/>
+    <row r="475" ht="18.75" customHeight="1"/>
+    <row r="476" ht="18.75" customHeight="1"/>
+    <row r="477" ht="18.75" customHeight="1"/>
+    <row r="478" ht="18.75" customHeight="1"/>
+    <row r="479" ht="18.75" customHeight="1"/>
+    <row r="480" ht="18.75" customHeight="1"/>
+    <row r="481" ht="18.75" customHeight="1"/>
+    <row r="482" ht="18.75" customHeight="1"/>
+    <row r="483" ht="18.75" customHeight="1"/>
+    <row r="484" ht="18.75" customHeight="1"/>
+    <row r="485" ht="18.75" customHeight="1"/>
+    <row r="486" ht="18.75" customHeight="1"/>
+    <row r="487" ht="18.75" customHeight="1"/>
+    <row r="488" ht="18.75" customHeight="1"/>
+    <row r="489" ht="18.75" customHeight="1"/>
+    <row r="490" ht="18.75" customHeight="1"/>
+    <row r="491" ht="18.75" customHeight="1"/>
+    <row r="492" ht="18.75" customHeight="1"/>
+    <row r="493" ht="18.75" customHeight="1"/>
+    <row r="494" ht="18.75" customHeight="1"/>
+    <row r="495" ht="18.75" customHeight="1"/>
+    <row r="496" ht="18.75" customHeight="1"/>
+    <row r="497" ht="18.75" customHeight="1"/>
+    <row r="498" ht="18.75" customHeight="1"/>
+    <row r="499" ht="18.75" customHeight="1"/>
+    <row r="500" ht="18.75" customHeight="1"/>
+    <row r="501" ht="18.75" customHeight="1"/>
+    <row r="502" ht="18.75" customHeight="1"/>
+    <row r="503" ht="18.75" customHeight="1"/>
+    <row r="504" ht="18.75" customHeight="1"/>
+    <row r="505" ht="18.75" customHeight="1"/>
+    <row r="506" ht="18.75" customHeight="1"/>
+    <row r="507" ht="18.75" customHeight="1"/>
+    <row r="508" ht="18.75" customHeight="1"/>
+    <row r="509" ht="18.75" customHeight="1"/>
+    <row r="510" ht="18.75" customHeight="1"/>
+    <row r="511" ht="18.75" customHeight="1"/>
+    <row r="512" ht="18.75" customHeight="1"/>
+    <row r="513" ht="18.75" customHeight="1"/>
+    <row r="514" ht="18.75" customHeight="1"/>
+    <row r="515" ht="18.75" customHeight="1"/>
+    <row r="516" ht="18.75" customHeight="1"/>
+    <row r="517" ht="18.75" customHeight="1"/>
+    <row r="518" ht="18.75" customHeight="1"/>
+    <row r="519" ht="18.75" customHeight="1"/>
+    <row r="520" ht="18.75" customHeight="1"/>
+    <row r="521" ht="18.75" customHeight="1"/>
+    <row r="522" ht="18.75" customHeight="1"/>
+    <row r="523" ht="18.75" customHeight="1"/>
+    <row r="524" ht="18.75" customHeight="1"/>
+    <row r="525" ht="18.75" customHeight="1"/>
+    <row r="526" ht="18.75" customHeight="1"/>
+    <row r="527" ht="18.75" customHeight="1"/>
+    <row r="528" ht="18.75" customHeight="1"/>
+    <row r="529" ht="18.75" customHeight="1"/>
+    <row r="530" ht="18.75" customHeight="1"/>
+    <row r="531" ht="18.75" customHeight="1"/>
+    <row r="532" ht="18.75" customHeight="1"/>
+    <row r="533" ht="18.75" customHeight="1"/>
+    <row r="534" ht="18.75" customHeight="1"/>
+    <row r="535" ht="18.75" customHeight="1"/>
+    <row r="536" ht="18.75" customHeight="1"/>
+    <row r="537" ht="18.75" customHeight="1"/>
+    <row r="538" ht="18.75" customHeight="1"/>
+    <row r="539" ht="18.75" customHeight="1"/>
+    <row r="540" ht="18.75" customHeight="1"/>
+    <row r="541" ht="18.75" customHeight="1"/>
+    <row r="542" ht="18.75" customHeight="1"/>
+    <row r="543" ht="18.75" customHeight="1"/>
+    <row r="544" ht="18.75" customHeight="1"/>
+    <row r="545" ht="18.75" customHeight="1"/>
+    <row r="546" ht="18.75" customHeight="1"/>
+    <row r="547" ht="18.75" customHeight="1"/>
+    <row r="548" ht="18.75" customHeight="1"/>
+    <row r="549" ht="18.75" customHeight="1"/>
+    <row r="550" ht="18.75" customHeight="1"/>
+    <row r="551" ht="18.75" customHeight="1"/>
+    <row r="552" ht="18.75" customHeight="1"/>
+    <row r="553" ht="18.75" customHeight="1"/>
+    <row r="554" ht="18.75" customHeight="1"/>
+    <row r="555" ht="18.75" customHeight="1"/>
+    <row r="556" ht="18.75" customHeight="1"/>
+    <row r="557" ht="18.75" customHeight="1"/>
+    <row r="558" ht="18.75" customHeight="1"/>
+    <row r="559" ht="18.75" customHeight="1"/>
+    <row r="560" ht="18.75" customHeight="1"/>
+    <row r="561" ht="18.75" customHeight="1"/>
+    <row r="562" ht="18.75" customHeight="1"/>
+    <row r="563" ht="18.75" customHeight="1"/>
+    <row r="564" ht="18.75" customHeight="1"/>
+    <row r="565" ht="18.75" customHeight="1"/>
+    <row r="566" ht="18.75" customHeight="1"/>
+    <row r="567" ht="18.75" customHeight="1"/>
+    <row r="568" ht="18.75" customHeight="1"/>
+    <row r="569" ht="18.75" customHeight="1"/>
+    <row r="570" ht="18.75" customHeight="1"/>
+    <row r="571" ht="18.75" customHeight="1"/>
+    <row r="572" ht="18.75" customHeight="1"/>
+    <row r="573" ht="18.75" customHeight="1"/>
+    <row r="574" ht="18.75" customHeight="1"/>
+    <row r="575" ht="18.75" customHeight="1"/>
+    <row r="576" ht="18.75" customHeight="1"/>
+    <row r="577" ht="18.75" customHeight="1"/>
+    <row r="578" ht="18.75" customHeight="1"/>
+    <row r="579" ht="18.75" customHeight="1"/>
+    <row r="580" ht="18.75" customHeight="1"/>
+    <row r="581" ht="18.75" customHeight="1"/>
+    <row r="582" ht="18.75" customHeight="1"/>
+    <row r="583" ht="18.75" customHeight="1"/>
+    <row r="584" ht="18.75" customHeight="1"/>
+    <row r="585" ht="18.75" customHeight="1"/>
+    <row r="586" ht="18.75" customHeight="1"/>
+    <row r="587" ht="18.75" customHeight="1"/>
+    <row r="588" ht="18.75" customHeight="1"/>
+    <row r="589" ht="18.75" customHeight="1"/>
+    <row r="590" ht="18.75" customHeight="1"/>
+    <row r="591" ht="18.75" customHeight="1"/>
+    <row r="592" ht="18.75" customHeight="1"/>
+    <row r="593" ht="18.75" customHeight="1"/>
+    <row r="594" ht="18.75" customHeight="1"/>
+    <row r="595" ht="18.75" customHeight="1"/>
+    <row r="596" ht="18.75" customHeight="1"/>
+    <row r="597" ht="18.75" customHeight="1"/>
+    <row r="598" ht="18.75" customHeight="1"/>
+    <row r="599" ht="18.75" customHeight="1"/>
+    <row r="600" ht="18.75" customHeight="1"/>
+    <row r="601" ht="18.75" customHeight="1"/>
+    <row r="602" ht="18.75" customHeight="1"/>
+    <row r="603" ht="18.75" customHeight="1"/>
+    <row r="604" ht="18.75" customHeight="1"/>
+    <row r="605" ht="18.75" customHeight="1"/>
+    <row r="606" ht="18.75" customHeight="1"/>
+    <row r="607" ht="18.75" customHeight="1"/>
+    <row r="608" ht="18.75" customHeight="1"/>
+    <row r="609" ht="18.75" customHeight="1"/>
+    <row r="610" ht="18.75" customHeight="1"/>
+    <row r="611" ht="18.75" customHeight="1"/>
+    <row r="612" ht="18.75" customHeight="1"/>
+    <row r="613" ht="18.75" customHeight="1"/>
+    <row r="614" ht="18.75" customHeight="1"/>
+    <row r="615" ht="18.75" customHeight="1"/>
+    <row r="616" ht="18.75" customHeight="1"/>
+    <row r="617" ht="18.75" customHeight="1"/>
+    <row r="618" ht="18.75" customHeight="1"/>
+    <row r="619" ht="18.75" customHeight="1"/>
+    <row r="620" ht="18.75" customHeight="1"/>
+    <row r="621" ht="18.75" customHeight="1"/>
+    <row r="622" ht="18.75" customHeight="1"/>
+    <row r="623" ht="18.75" customHeight="1"/>
+    <row r="624" ht="18.75" customHeight="1"/>
+    <row r="625" ht="18.75" customHeight="1"/>
+    <row r="626" ht="18.75" customHeight="1"/>
+    <row r="627" ht="18.75" customHeight="1"/>
+    <row r="628" ht="18.75" customHeight="1"/>
+    <row r="629" ht="18.75" customHeight="1"/>
+    <row r="630" ht="18.75" customHeight="1"/>
+    <row r="631" ht="18.75" customHeight="1"/>
+    <row r="632" ht="18.75" customHeight="1"/>
+    <row r="633" ht="18.75" customHeight="1"/>
+    <row r="634" ht="18.75" customHeight="1"/>
+    <row r="635" ht="18.75" customHeight="1"/>
+    <row r="636" ht="18.75" customHeight="1"/>
+    <row r="637" ht="18.75" customHeight="1"/>
+    <row r="638" ht="18.75" customHeight="1"/>
+    <row r="639" ht="18.75" customHeight="1"/>
+    <row r="640" ht="18.75" customHeight="1"/>
+    <row r="641" ht="18.75" customHeight="1"/>
+    <row r="642" ht="18.75" customHeight="1"/>
+    <row r="643" ht="18.75" customHeight="1"/>
+    <row r="644" ht="18.75" customHeight="1"/>
+    <row r="645" ht="18.75" customHeight="1"/>
+    <row r="646" ht="18.75" customHeight="1"/>
+    <row r="647" ht="18.75" customHeight="1"/>
+    <row r="648" ht="18.75" customHeight="1"/>
+    <row r="649" ht="18.75" customHeight="1"/>
+    <row r="650" ht="18.75" customHeight="1"/>
+    <row r="651" ht="18.75" customHeight="1"/>
+    <row r="652" ht="18.75" customHeight="1"/>
+    <row r="653" ht="18.75" customHeight="1"/>
+    <row r="654" ht="18.75" customHeight="1"/>
+    <row r="655" ht="18.75" customHeight="1"/>
+    <row r="656" ht="18.75" customHeight="1"/>
+    <row r="657" ht="18.75" customHeight="1"/>
+    <row r="658" ht="18.75" customHeight="1"/>
+    <row r="659" ht="18.75" customHeight="1"/>
+    <row r="660" ht="18.75" customHeight="1"/>
+    <row r="661" ht="18.75" customHeight="1"/>
+    <row r="662" ht="18.75" customHeight="1"/>
+    <row r="663" ht="18.75" customHeight="1"/>
+    <row r="664" ht="18.75" customHeight="1"/>
+    <row r="665" ht="18.75" customHeight="1"/>
+    <row r="666" ht="18.75" customHeight="1"/>
+    <row r="667" ht="18.75" customHeight="1"/>
+    <row r="668" ht="18.75" customHeight="1"/>
+    <row r="669" ht="18.75" customHeight="1"/>
+    <row r="670" ht="18.75" customHeight="1"/>
+    <row r="671" ht="18.75" customHeight="1"/>
+    <row r="672" ht="18.75" customHeight="1"/>
+    <row r="673" ht="18.75" customHeight="1"/>
+    <row r="674" ht="18.75" customHeight="1"/>
+    <row r="675" ht="18.75" customHeight="1"/>
+    <row r="676" ht="18.75" customHeight="1"/>
+    <row r="677" ht="18.75" customHeight="1"/>
+    <row r="678" ht="18.75" customHeight="1"/>
+    <row r="679" ht="18.75" customHeight="1"/>
+    <row r="680" ht="18.75" customHeight="1"/>
+    <row r="681" ht="18.75" customHeight="1"/>
+    <row r="682" ht="18.75" customHeight="1"/>
+    <row r="683" ht="18.75" customHeight="1"/>
+    <row r="684" ht="18.75" customHeight="1"/>
+    <row r="685" ht="18.75" customHeight="1"/>
+    <row r="686" ht="18.75" customHeight="1"/>
+    <row r="687" ht="18.75" customHeight="1"/>
+    <row r="688" ht="18.75" customHeight="1"/>
+    <row r="689" ht="18.75" customHeight="1"/>
+    <row r="690" ht="18.75" customHeight="1"/>
+    <row r="691" ht="18.75" customHeight="1"/>
+    <row r="692" ht="18.75" customHeight="1"/>
+    <row r="693" ht="18.75" customHeight="1"/>
+    <row r="694" ht="18.75" customHeight="1"/>
+    <row r="695" ht="18.75" customHeight="1"/>
+    <row r="696" ht="18.75" customHeight="1"/>
+    <row r="697" ht="18.75" customHeight="1"/>
+    <row r="698" ht="18.75" customHeight="1"/>
+    <row r="699" ht="18.75" customHeight="1"/>
+    <row r="700" ht="18.75" customHeight="1"/>
+    <row r="701" ht="18.75" customHeight="1"/>
+    <row r="702" ht="18.75" customHeight="1"/>
+    <row r="703" ht="18.75" customHeight="1"/>
+    <row r="704" ht="18.75" customHeight="1"/>
+    <row r="705" ht="18.75" customHeight="1"/>
+    <row r="706" ht="18.75" customHeight="1"/>
+    <row r="707" ht="18.75" customHeight="1"/>
+    <row r="708" ht="18.75" customHeight="1"/>
+    <row r="709" ht="18.75" customHeight="1"/>
+    <row r="710" ht="18.75" customHeight="1"/>
+    <row r="711" ht="18.75" customHeight="1"/>
+    <row r="712" ht="18.75" customHeight="1"/>
+    <row r="713" ht="18.75" customHeight="1"/>
+    <row r="714" ht="18.75" customHeight="1"/>
+    <row r="715" ht="18.75" customHeight="1"/>
+    <row r="716" ht="18.75" customHeight="1"/>
+    <row r="717" ht="18.75" customHeight="1"/>
+    <row r="718" ht="18.75" customHeight="1"/>
+    <row r="719" ht="18.75" customHeight="1"/>
+    <row r="720" ht="18.75" customHeight="1"/>
+    <row r="721" ht="18.75" customHeight="1"/>
+    <row r="722" ht="18.75" customHeight="1"/>
+    <row r="723" ht="18.75" customHeight="1"/>
+    <row r="724" ht="18.75" customHeight="1"/>
+    <row r="725" ht="18.75" customHeight="1"/>
+    <row r="726" ht="18.75" customHeight="1"/>
+    <row r="727" ht="18.75" customHeight="1"/>
+    <row r="728" ht="18.75" customHeight="1"/>
+    <row r="729" ht="18.75" customHeight="1"/>
+    <row r="730" ht="18.75" customHeight="1"/>
+    <row r="731" ht="18.75" customHeight="1"/>
+    <row r="732" ht="18.75" customHeight="1"/>
+    <row r="733" ht="18.75" customHeight="1"/>
+    <row r="734" ht="18.75" customHeight="1"/>
+    <row r="735" ht="18.75" customHeight="1"/>
+    <row r="736" ht="18.75" customHeight="1"/>
+    <row r="737" ht="18.75" customHeight="1"/>
+    <row r="738" ht="18.75" customHeight="1"/>
+    <row r="739" ht="18.75" customHeight="1"/>
+    <row r="740" ht="18.75" customHeight="1"/>
+    <row r="741" ht="18.75" customHeight="1"/>
+    <row r="742" ht="18.75" customHeight="1"/>
+    <row r="743" ht="18.75" customHeight="1"/>
+    <row r="744" ht="18.75" customHeight="1"/>
+    <row r="745" ht="18.75" customHeight="1"/>
+    <row r="746" ht="18.75" customHeight="1"/>
+    <row r="747" ht="18.75" customHeight="1"/>
+    <row r="748" ht="18.75" customHeight="1"/>
+    <row r="749" ht="18.75" customHeight="1"/>
+    <row r="750" ht="18.75" customHeight="1"/>
+    <row r="751" ht="18.75" customHeight="1"/>
+    <row r="752" ht="18.75" customHeight="1"/>
+    <row r="753" ht="18.75" customHeight="1"/>
+    <row r="754" ht="18.75" customHeight="1"/>
+    <row r="755" ht="18.75" customHeight="1"/>
+    <row r="756" ht="18.75" customHeight="1"/>
+    <row r="757" ht="18.75" customHeight="1"/>
+    <row r="758" ht="18.75" customHeight="1"/>
+    <row r="759" ht="18.75" customHeight="1"/>
+    <row r="760" ht="18.75" customHeight="1"/>
+    <row r="761" ht="18.75" customHeight="1"/>
+    <row r="762" ht="18.75" customHeight="1"/>
+    <row r="763" ht="18.75" customHeight="1"/>
+    <row r="764" ht="18.75" customHeight="1"/>
+    <row r="765" ht="18.75" customHeight="1"/>
+    <row r="766" ht="18.75" customHeight="1"/>
+    <row r="767" ht="18.75" customHeight="1"/>
+    <row r="768" ht="18.75" customHeight="1"/>
+    <row r="769" ht="18.75" customHeight="1"/>
+    <row r="770" ht="18.75" customHeight="1"/>
+    <row r="771" ht="18.75" customHeight="1"/>
+    <row r="772" ht="18.75" customHeight="1"/>
+    <row r="773" ht="18.75" customHeight="1"/>
+    <row r="774" ht="18.75" customHeight="1"/>
+    <row r="775" ht="18.75" customHeight="1"/>
+    <row r="776" ht="18.75" customHeight="1"/>
+    <row r="777" ht="18.75" customHeight="1"/>
+    <row r="778" ht="18.75" customHeight="1"/>
+    <row r="779" ht="18.75" customHeight="1"/>
+    <row r="780" ht="18.75" customHeight="1"/>
+    <row r="781" ht="18.75" customHeight="1"/>
+    <row r="782" ht="18.75" customHeight="1"/>
+    <row r="783" ht="18.75" customHeight="1"/>
+    <row r="784" ht="18.75" customHeight="1"/>
+    <row r="785" ht="18.75" customHeight="1"/>
+    <row r="786" ht="18.75" customHeight="1"/>
+    <row r="787" ht="18.75" customHeight="1"/>
+    <row r="788" ht="18.75" customHeight="1"/>
+    <row r="789" ht="18.75" customHeight="1"/>
+    <row r="790" ht="18.75" customHeight="1"/>
+    <row r="791" ht="18.75" customHeight="1"/>
+    <row r="792" ht="18.75" customHeight="1"/>
+    <row r="793" ht="18.75" customHeight="1"/>
+    <row r="794" ht="18.75" customHeight="1"/>
+    <row r="795" ht="18.75" customHeight="1"/>
+    <row r="796" ht="18.75" customHeight="1"/>
+    <row r="797" ht="18.75" customHeight="1"/>
+    <row r="798" ht="18.75" customHeight="1"/>
+    <row r="799" ht="18.75" customHeight="1"/>
+    <row r="800" ht="18.75" customHeight="1"/>
+    <row r="801" ht="18.75" customHeight="1"/>
+    <row r="802" ht="18.75" customHeight="1"/>
+    <row r="803" ht="18.75" customHeight="1"/>
+    <row r="804" ht="18.75" customHeight="1"/>
+    <row r="805" ht="18.75" customHeight="1"/>
+    <row r="806" ht="18.75" customHeight="1"/>
+    <row r="807" ht="18.75" customHeight="1"/>
+    <row r="808" ht="18.75" customHeight="1"/>
+    <row r="809" ht="18.75" customHeight="1"/>
+    <row r="810" ht="18.75" customHeight="1"/>
+    <row r="811" ht="18.75" customHeight="1"/>
+    <row r="812" ht="18.75" customHeight="1"/>
+    <row r="813" ht="18.75" customHeight="1"/>
+    <row r="814" ht="18.75" customHeight="1"/>
+    <row r="815" ht="18.75" customHeight="1"/>
+    <row r="816" ht="18.75" customHeight="1"/>
+    <row r="817" ht="18.75" customHeight="1"/>
+    <row r="818" ht="18.75" customHeight="1"/>
+    <row r="819" ht="18.75" customHeight="1"/>
+    <row r="820" ht="18.75" customHeight="1"/>
+    <row r="821" ht="18.75" customHeight="1"/>
+    <row r="822" ht="18.75" customHeight="1"/>
+    <row r="823" ht="18.75" customHeight="1"/>
+    <row r="824" ht="18.75" customHeight="1"/>
+    <row r="825" ht="18.75" customHeight="1"/>
+    <row r="826" ht="18.75" customHeight="1"/>
+    <row r="827" ht="18.75" customHeight="1"/>
+    <row r="828" ht="18.75" customHeight="1"/>
+    <row r="829" ht="18.75" customHeight="1"/>
+    <row r="830" ht="18.75" customHeight="1"/>
+    <row r="831" ht="18.75" customHeight="1"/>
+    <row r="832" ht="18.75" customHeight="1"/>
+    <row r="833" ht="18.75" customHeight="1"/>
+    <row r="834" ht="18.75" customHeight="1"/>
+    <row r="835" ht="18.75" customHeight="1"/>
+    <row r="836" ht="18.75" customHeight="1"/>
+    <row r="837" ht="18.75" customHeight="1"/>
+    <row r="838" ht="18.75" customHeight="1"/>
+    <row r="839" ht="18.75" customHeight="1"/>
+    <row r="840" ht="18.75" customHeight="1"/>
+    <row r="841" ht="18.75" customHeight="1"/>
+    <row r="842" ht="18.75" customHeight="1"/>
+    <row r="843" ht="18.75" customHeight="1"/>
+    <row r="844" ht="18.75" customHeight="1"/>
+    <row r="845" ht="18.75" customHeight="1"/>
+    <row r="846" ht="18.75" customHeight="1"/>
+    <row r="847" ht="18.75" customHeight="1"/>
+    <row r="848" ht="18.75" customHeight="1"/>
+    <row r="849" ht="18.75" customHeight="1"/>
+    <row r="850" ht="18.75" customHeight="1"/>
+    <row r="851" ht="18.75" customHeight="1"/>
+    <row r="852" ht="18.75" customHeight="1"/>
+    <row r="853" ht="18.75" customHeight="1"/>
+    <row r="854" ht="18.75" customHeight="1"/>
+    <row r="855" ht="18.75" customHeight="1"/>
+    <row r="856" ht="18.75" customHeight="1"/>
+    <row r="857" ht="18.75" customHeight="1"/>
+    <row r="858" ht="18.75" customHeight="1"/>
+    <row r="859" ht="18.75" customHeight="1"/>
+    <row r="860" ht="18.75" customHeight="1"/>
+    <row r="861" ht="18.75" customHeight="1"/>
+    <row r="862" ht="18.75" customHeight="1"/>
+    <row r="863" ht="18.75" customHeight="1"/>
+    <row r="864" ht="18.75" customHeight="1"/>
+    <row r="865" ht="18.75" customHeight="1"/>
+    <row r="866" ht="18.75" customHeight="1"/>
+    <row r="867" ht="18.75" customHeight="1"/>
+    <row r="868" ht="18.75" customHeight="1"/>
+    <row r="869" ht="18.75" customHeight="1"/>
+    <row r="870" ht="18.75" customHeight="1"/>
+    <row r="871" ht="18.75" customHeight="1"/>
+    <row r="872" ht="18.75" customHeight="1"/>
+    <row r="873" ht="18.75" customHeight="1"/>
+    <row r="874" ht="18.75" customHeight="1"/>
+    <row r="875" ht="18.75" customHeight="1"/>
+    <row r="876" ht="18.75" customHeight="1"/>
+    <row r="877" ht="18.75" customHeight="1"/>
+    <row r="878" ht="18.75" customHeight="1"/>
+    <row r="879" ht="18.75" customHeight="1"/>
+    <row r="880" ht="18.75" customHeight="1"/>
+    <row r="881" ht="18.75" customHeight="1"/>
+    <row r="882" ht="18.75" customHeight="1"/>
+    <row r="883" ht="18.75" customHeight="1"/>
+    <row r="884" ht="18.75" customHeight="1"/>
+    <row r="885" ht="18.75" customHeight="1"/>
+    <row r="886" ht="18.75" customHeight="1"/>
+    <row r="887" ht="18.75" customHeight="1"/>
+    <row r="888" ht="18.75" customHeight="1"/>
+    <row r="889" ht="18.75" customHeight="1"/>
+    <row r="890" ht="18.75" customHeight="1"/>
+    <row r="891" ht="18.75" customHeight="1"/>
+    <row r="892" ht="18.75" customHeight="1"/>
+    <row r="893" ht="18.75" customHeight="1"/>
+    <row r="894" ht="18.75" customHeight="1"/>
+    <row r="895" ht="18.75" customHeight="1"/>
+    <row r="896" ht="18.75" customHeight="1"/>
+    <row r="897" ht="18.75" customHeight="1"/>
+    <row r="898" ht="18.75" customHeight="1"/>
+    <row r="899" ht="18.75" customHeight="1"/>
+    <row r="900" ht="18.75" customHeight="1"/>
+    <row r="901" ht="18.75" customHeight="1"/>
+    <row r="902" ht="18.75" customHeight="1"/>
+    <row r="903" ht="18.75" customHeight="1"/>
+    <row r="904" ht="18.75" customHeight="1"/>
+    <row r="905" ht="18.75" customHeight="1"/>
+    <row r="906" ht="18.75" customHeight="1"/>
+    <row r="907" ht="18.75" customHeight="1"/>
+    <row r="908" ht="18.75" customHeight="1"/>
+    <row r="909" ht="18.75" customHeight="1"/>
+    <row r="910" ht="18.75" customHeight="1"/>
+    <row r="911" ht="18.75" customHeight="1"/>
+    <row r="912" ht="18.75" customHeight="1"/>
+    <row r="913" ht="18.75" customHeight="1"/>
+    <row r="914" ht="18.75" customHeight="1"/>
+    <row r="915" ht="18.75" customHeight="1"/>
+    <row r="916" ht="18.75" customHeight="1"/>
+    <row r="917" ht="18.75" customHeight="1"/>
+    <row r="918" ht="18.75" customHeight="1"/>
+    <row r="919" ht="18.75" customHeight="1"/>
+    <row r="920" ht="18.75" customHeight="1"/>
+    <row r="921" ht="18.75" customHeight="1"/>
+    <row r="922" ht="18.75" customHeight="1"/>
+    <row r="923" ht="18.75" customHeight="1"/>
+    <row r="924" ht="18.75" customHeight="1"/>
+    <row r="925" ht="18.75" customHeight="1"/>
+    <row r="926" ht="18.75" customHeight="1"/>
+    <row r="927" ht="18.75" customHeight="1"/>
+    <row r="928" ht="18.75" customHeight="1"/>
+    <row r="929" ht="18.75" customHeight="1"/>
+    <row r="930" ht="18.75" customHeight="1"/>
+    <row r="931" ht="18.75" customHeight="1"/>
+    <row r="932" ht="18.75" customHeight="1"/>
+    <row r="933" ht="18.75" customHeight="1"/>
+    <row r="934" ht="18.75" customHeight="1"/>
+    <row r="935" ht="18.75" customHeight="1"/>
+    <row r="936" ht="18.75" customHeight="1"/>
+    <row r="937" ht="18.75" customHeight="1"/>
+    <row r="938" ht="18.75" customHeight="1"/>
+    <row r="939" ht="18.75" customHeight="1"/>
+    <row r="940" ht="18.75" customHeight="1"/>
+    <row r="941" ht="18.75" customHeight="1"/>
+    <row r="942" ht="18.75" customHeight="1"/>
+    <row r="943" ht="18.75" customHeight="1"/>
+    <row r="944" ht="18.75" customHeight="1"/>
+    <row r="945" ht="18.75" customHeight="1"/>
+    <row r="946" ht="18.75" customHeight="1"/>
+    <row r="947" ht="18.75" customHeight="1"/>
+    <row r="948" ht="18.75" customHeight="1"/>
+    <row r="949" ht="18.75" customHeight="1"/>
+    <row r="950" ht="18.75" customHeight="1"/>
+    <row r="951" ht="18.75" customHeight="1"/>
+    <row r="952" ht="18.75" customHeight="1"/>
+    <row r="953" ht="18.75" customHeight="1"/>
+    <row r="954" ht="18.75" customHeight="1"/>
+    <row r="955" ht="18.75" customHeight="1"/>
+    <row r="956" ht="18.75" customHeight="1"/>
+    <row r="957" ht="18.75" customHeight="1"/>
+    <row r="958" ht="18.75" customHeight="1"/>
+    <row r="959" ht="18.75" customHeight="1"/>
+    <row r="960" ht="18.75" customHeight="1"/>
+    <row r="961" ht="18.75" customHeight="1"/>
+    <row r="962" ht="18.75" customHeight="1"/>
+    <row r="963" ht="18.75" customHeight="1"/>
+    <row r="964" ht="18.75" customHeight="1"/>
+    <row r="965" ht="18.75" customHeight="1"/>
+    <row r="966" ht="18.75" customHeight="1"/>
+    <row r="967" ht="18.75" customHeight="1"/>
+    <row r="968" ht="18.75" customHeight="1"/>
+    <row r="969" ht="18.75" customHeight="1"/>
+    <row r="970" ht="18.75" customHeight="1"/>
+    <row r="971" ht="18.75" customHeight="1"/>
+    <row r="972" ht="18.75" customHeight="1"/>
+    <row r="973" ht="18.75" customHeight="1"/>
+    <row r="974" ht="18.75" customHeight="1"/>
+    <row r="975" ht="18.75" customHeight="1"/>
+    <row r="976" ht="15" customHeight="1"/>
+    <row r="977" ht="15" customHeight="1"/>
+    <row r="978" ht="15" customHeight="1"/>
+    <row r="979" ht="15" customHeight="1"/>
+    <row r="980" ht="15" customHeight="1"/>
+    <row r="981" ht="15" customHeight="1"/>
+    <row r="982" ht="15" customHeight="1"/>
+    <row r="983" ht="15" customHeight="1"/>
+    <row r="984" ht="15" customHeight="1"/>
+    <row r="985" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="A103:J103"/>
+  <mergeCells count="119">
+    <mergeCell ref="K83:K87"/>
+    <mergeCell ref="K90:K94"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="K104:K108"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="K45:K49"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="K57:K61"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="K64:K68"/>
+    <mergeCell ref="K70:K74"/>
+    <mergeCell ref="K76:K80"/>
+    <mergeCell ref="A82:K82"/>
+    <mergeCell ref="A63:K63"/>
     <mergeCell ref="A104:A108"/>
     <mergeCell ref="D104:D108"/>
     <mergeCell ref="E104:E108"/>
@@ -4776,7 +5143,6 @@
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="E57:E61"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A44:J44"/>
     <mergeCell ref="B51:B55"/>
     <mergeCell ref="D38:D42"/>
     <mergeCell ref="E38:E42"/>
@@ -4801,7 +5167,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E19:E23"/>
-    <mergeCell ref="A82:J82"/>
     <mergeCell ref="A83:A87"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="E83:E87"/>
@@ -4830,12 +5195,10 @@
     <mergeCell ref="C90:C95"/>
     <mergeCell ref="D102:J102"/>
     <mergeCell ref="C97:C102"/>
-    <mergeCell ref="A96:J96"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="E97:E101"/>
     <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A89:J89"/>
     <mergeCell ref="A90:A94"/>
     <mergeCell ref="D90:D94"/>
     <mergeCell ref="E90:E94"/>
@@ -4849,7 +5212,6 @@
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A63:J63"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="D64:D68"/>
     <mergeCell ref="E64:E68"/>
@@ -4863,6 +5225,11 @@
     <mergeCell ref="E76:E80"/>
     <mergeCell ref="B64:B68"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K7 K12:K13 K18:K19 K31:K32 K45 K37:K38 K64 K50:K51 K56:K57 K83 K69:K70 K75:K76 K90 K97 K104 K109:K1048576 K102 K95 K88 K81 K62 K43 K24 K26" xr:uid="{C0E21629-B069-493B-B5E8-1870A5A50272}">
+      <formula1>$M$3:$M$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4876,25 +5243,25 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="84"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="62"/>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4902,7 +5269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4910,7 +5277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4918,11 +5285,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4930,7 +5297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -4938,7 +5305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4946,11 +5313,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4958,7 +5325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -4966,7 +5333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4974,13 +5341,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="84"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="62"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4988,7 +5355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +5363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -5004,11 +5371,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -5016,7 +5383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -5024,7 +5391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -5032,11 +5399,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -5044,7 +5411,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -5052,7 +5419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -5060,13 +5427,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="83" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="84"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="62"/>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -5074,7 +5441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -5082,7 +5449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -5090,11 +5457,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -5102,7 +5469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -5110,7 +5477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -5118,11 +5485,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5130,7 +5497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5138,7 +5505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5146,13 +5513,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="83" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="84"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="62"/>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -5160,7 +5527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -5168,7 +5535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -5176,11 +5543,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -5188,7 +5555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -5196,7 +5563,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -5204,11 +5571,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -5216,7 +5583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -5224,7 +5591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -5232,13 +5599,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="85" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="85"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="63"/>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -5246,7 +5613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>27</v>
       </c>
@@ -5254,7 +5621,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>28</v>
       </c>
@@ -5262,13 +5629,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="86" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="86"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="64"/>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>83</v>
       </c>
@@ -5276,7 +5643,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>84</v>
       </c>
@@ -5284,7 +5651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>85</v>
       </c>
@@ -5292,13 +5659,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="86" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="86"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="64"/>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>26</v>
       </c>
@@ -5306,7 +5673,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>27</v>
       </c>
@@ -5314,7 +5681,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>28</v>
       </c>
@@ -5322,13 +5689,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="86" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="86"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="64"/>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>26</v>
       </c>
@@ -5336,7 +5703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>27</v>
       </c>
@@ -5344,7 +5711,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>28</v>
       </c>
@@ -5352,7 +5719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
     </row>
